--- a/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
+++ b/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="8295" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="8295" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NXB" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Vi trí" sheetId="5" r:id="rId3"/>
     <sheet name="Loại" sheetId="6" r:id="rId4"/>
     <sheet name="Độc giả" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="835">
   <si>
     <t>Lên gác rút thang</t>
   </si>
@@ -2524,6 +2525,15 @@
   </si>
   <si>
     <t>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000055', N'Nhà xuất bản Phương Đông', N'Tiền Giang', '0116712716', 'nhaxuatbanphuongdong@gmail.com', 'phuongdong.edu.vn')</t>
+  </si>
+  <si>
+    <t>GIOITINH</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
 </sst>
 </file>
@@ -4764,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -7394,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I52"/>
+  <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F52"/>
+    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7408,13 +7418,14 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="127.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="138.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>371</v>
       </c>
@@ -7433,8 +7444,11 @@
       <c r="G2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>LEN(B3)</f>
         <v>10</v>
@@ -7457,13 +7471,16 @@
       <c r="G3" t="s">
         <v>553</v>
       </c>
-      <c r="H3" t="str">
-        <f xml:space="preserve"> "insert into DocGia values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', '"&amp;D3&amp;"', N'"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"')"</f>
-        <v>insert into DocGia values ('DG00000003', N'Huỳnh Khánh An', '28/4/2001', N'An Giang', '0699483347', 'huynhkhanhan58@gmail.com')</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>833</v>
+      </c>
+      <c r="I3" t="str">
+        <f xml:space="preserve"> "insert into DocGia values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', '"&amp;D3&amp;"', N'"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', N'"&amp;H3&amp;"' )"</f>
+        <v>insert into DocGia values ('DG00000003', N'Huỳnh Khánh An', '28/4/2001', N'An Giang', '0699483347', 'huynhkhanhan58@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>417</v>
       </c>
@@ -7482,13 +7499,16 @@
       <c r="G4" t="s">
         <v>554</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H52" si="0" xml:space="preserve"> "insert into DocGia values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', '"&amp;D4&amp;"', N'"&amp;E4&amp;"', '"&amp;F4&amp;"', '"&amp;G4&amp;"')"</f>
-        <v>insert into DocGia values ('DG00000004', N'Thái Văn Chương', '2/6/1997', N'Thừa Thiên - Huế', '0981106882', 'thaivanchuong62@gmail.com')</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>834</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I52" si="0" xml:space="preserve"> "insert into DocGia values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', '"&amp;D4&amp;"', N'"&amp;E4&amp;"', '"&amp;F4&amp;"', '"&amp;G4&amp;"', N'"&amp;H4&amp;"' )"</f>
+        <v>insert into DocGia values ('DG00000004', N'Thái Văn Chương', '2/6/1997', N'Thừa Thiên - Huế', '0981106882', 'thaivanchuong62@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>418</v>
       </c>
@@ -7507,13 +7527,16 @@
       <c r="G5" t="s">
         <v>555</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000005', N'Từ Tấn Đạt', '26/3/1995', N'Bắc Giang', '0484569649', 'tutandat20@gmail.com')</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>833</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000005', N'Từ Tấn Đạt', '26/3/1995', N'Bắc Giang', '0484569649', 'tutandat20@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>419</v>
       </c>
@@ -7532,13 +7555,16 @@
       <c r="G6" t="s">
         <v>556</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000006', N'Lý Nguyễn Duy Kha', '10/1/1997', N'Bắc Ninh', '0643803411', 'lynguyenduykha69@gmail.com')</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>834</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000006', N'Lý Nguyễn Duy Kha', '10/1/1997', N'Bắc Ninh', '0643803411', 'lynguyenduykha69@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>420</v>
       </c>
@@ -7557,13 +7583,16 @@
       <c r="G7" t="s">
         <v>557</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000007', N'Trần Minh Khánh', '28/7/1996', N'An Giang', '0550410356', 'tranminhkhanh71@gmail.com')</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000007', N'Trần Minh Khánh', '28/7/1996', N'An Giang', '0550410356', 'tranminhkhanh71@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>421</v>
       </c>
@@ -7582,13 +7611,16 @@
       <c r="G8" t="s">
         <v>558</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000008', N'Lê Minh Khôi', '12/2/2000', N'Hậu Giang', '0775519360', 'leminhkhoi39@gmail.com')</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>833</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000008', N'Lê Minh Khôi', '12/2/2000', N'Hậu Giang', '0775519360', 'leminhkhoi39@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>422</v>
       </c>
@@ -7607,13 +7639,16 @@
       <c r="G9" t="s">
         <v>559</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000009', N'Võ Nguyễn Như Lụa', '7/3/1996', N'Thái Nguyên', '0214026549', 'vonguyennhulua21@gmail.com')</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>834</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000009', N'Võ Nguyễn Như Lụa', '7/3/1996', N'Thái Nguyên', '0214026549', 'vonguyennhulua21@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>423</v>
       </c>
@@ -7632,13 +7667,16 @@
       <c r="G10" t="s">
         <v>560</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000010', N'Võ Thị Phương Mai', '14/8/1998', N'Quảng Ngãi', '0789677655', 'vothiphuongmai48@gmail.com')</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>834</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000010', N'Võ Thị Phương Mai', '14/8/1998', N'Quảng Ngãi', '0789677655', 'vothiphuongmai48@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>424</v>
       </c>
@@ -7657,13 +7695,16 @@
       <c r="G11" t="s">
         <v>561</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000011', N'Nguyễn Trà My', '19/5/2000', N'Tây Ninh', '0783790532', 'nguyentramy49@gmail.com')</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>833</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000011', N'Nguyễn Trà My', '19/5/2000', N'Tây Ninh', '0783790532', 'nguyentramy49@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>425</v>
       </c>
@@ -7682,13 +7723,16 @@
       <c r="G12" t="s">
         <v>562</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000012', N'Nguyễn Thoại Mỹ', '9/2/2003', N'Bình Thuận', '0625146611', 'nguyenthoaimy71@gmail.com')</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>834</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000012', N'Nguyễn Thoại Mỹ', '9/2/2003', N'Bình Thuận', '0625146611', 'nguyenthoaimy71@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>426</v>
       </c>
@@ -7707,13 +7751,16 @@
       <c r="G13" t="s">
         <v>563</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000013', N'Nguyễn Thị Mai Nghi', '7/2/1996', N'Kon Tum', '0252065590', 'nguyenthimainghi48@gmail.com')</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>833</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000013', N'Nguyễn Thị Mai Nghi', '7/2/1996', N'Kon Tum', '0252065590', 'nguyenthimainghi48@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>427</v>
       </c>
@@ -7732,13 +7779,16 @@
       <c r="G14" t="s">
         <v>564</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000014', N'Nguyễn Hữu Nghị', '28/11/1995', N'Thừa Thiên - Huế', '0629987185', 'nguyenhuunghi20@gmail.com')</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>834</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000014', N'Nguyễn Hữu Nghị', '28/11/1995', N'Thừa Thiên - Huế', '0629987185', 'nguyenhuunghi20@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>428</v>
       </c>
@@ -7757,13 +7807,16 @@
       <c r="G15" t="s">
         <v>565</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000015', N'Lê You Hi', '21/1/1998', N'Hải Phòng ', '0326325548', 'leyouhi32@gmail.com')</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>834</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000015', N'Lê You Hi', '21/1/1998', N'Hải Phòng ', '0326325548', 'leyouhi32@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>429</v>
       </c>
@@ -7782,13 +7835,16 @@
       <c r="G16" t="s">
         <v>566</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000016', N'Lê Thị Hoa', '11/11/1998', N'Yên Bái', '0993343251', 'lethihoa97@gmail.com')</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>833</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000016', N'Lê Thị Hoa', '11/11/1998', N'Yên Bái', '0993343251', 'lethihoa97@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>430</v>
       </c>
@@ -7807,13 +7863,16 @@
       <c r="G17" t="s">
         <v>567</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000017', N'Huỳnh Nguyễn Hưng', '5/2/1997', N'Quảng Nam', '0378550310', 'huynhnguyenhung34@gmail.com')</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>833</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000017', N'Huỳnh Nguyễn Hưng', '5/2/1997', N'Quảng Nam', '0378550310', 'huynhnguyenhung34@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>431</v>
       </c>
@@ -7832,13 +7891,16 @@
       <c r="G18" t="s">
         <v>568</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000018', N'Nguyễn Duy Khang', '5/9/1996', N'Cà Mau', '0906237986', 'nguyenduykhang24@gmail.com')</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>833</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000018', N'Nguyễn Duy Khang', '5/9/1996', N'Cà Mau', '0906237986', 'nguyenduykhang24@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>432</v>
       </c>
@@ -7857,13 +7919,16 @@
       <c r="G19" t="s">
         <v>569</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000019', N'Trần Trúc Lam', '18/1/1999', N'Lâm Đồng', '0934578085', 'trantruclam7@gmail.com')</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>833</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000019', N'Trần Trúc Lam', '18/1/1999', N'Lâm Đồng', '0934578085', 'trantruclam7@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>433</v>
       </c>
@@ -7882,13 +7947,16 @@
       <c r="G20" t="s">
         <v>570</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000020', N'Nguyễn Lê Lợi', '19/4/1995', N'Hải Phòng', '0691913513', 'nguyenleloi6@gmail.com')</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>833</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000020', N'Nguyễn Lê Lợi', '19/4/1995', N'Hải Phòng', '0691913513', 'nguyenleloi6@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>434</v>
       </c>
@@ -7907,13 +7975,16 @@
       <c r="G21" t="s">
         <v>571</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000021', N'Lê You Hi', '1/5/2000', N'Phú Thọ', '0195164884', 'leyouhi40@gmail.com')</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>833</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000021', N'Lê You Hi', '1/5/2000', N'Phú Thọ', '0195164884', 'leyouhi40@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>435</v>
       </c>
@@ -7932,13 +8003,16 @@
       <c r="G22" t="s">
         <v>572</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000022', N'Cao Quốc Thái', '21/2/1997', N'Thừa Thiên - Huế', '0431118897', 'caoquocthai94@gmail.com')</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>834</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000022', N'Cao Quốc Thái', '21/2/1997', N'Thừa Thiên - Huế', '0431118897', 'caoquocthai94@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>436</v>
       </c>
@@ -7957,13 +8031,16 @@
       <c r="G23" t="s">
         <v>573</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000023', N'Bùi Thị Ngọc Trân', '4/9/1995', N'Cà Mau', '0578338053', 'buithingoctran59@gmail.com')</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>834</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000023', N'Bùi Thị Ngọc Trân', '4/9/1995', N'Cà Mau', '0578338053', 'buithingoctran59@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>437</v>
       </c>
@@ -7982,13 +8059,16 @@
       <c r="G24" t="s">
         <v>574</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000024', N'Nguyễn Phương Trinh', '22/7/1997', N'Đồng Nai', '0196648735', 'nguyenphuongtrinh7@gmail.com')</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>833</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000024', N'Nguyễn Phương Trinh', '22/7/1997', N'Đồng Nai', '0196648735', 'nguyenphuongtrinh7@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>438</v>
       </c>
@@ -8007,13 +8087,16 @@
       <c r="G25" t="s">
         <v>575</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000025', N'Nguyễn Chí Vĩ', '3/4/1995', N'Kiên Giang', '0386324313', 'nguyenchivi82@gmail.com')</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>833</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000025', N'Nguyễn Chí Vĩ', '3/4/1995', N'Kiên Giang', '0386324313', 'nguyenchivi82@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>439</v>
       </c>
@@ -8032,13 +8115,16 @@
       <c r="G26" t="s">
         <v>576</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000026', N'Trần Thị Yến Vy', '14/3/2003', N'Gia Lai', '0937340216', 'tranthiyenvy20@gmail.com')</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>833</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000026', N'Trần Thị Yến Vy', '14/3/2003', N'Gia Lai', '0937340216', 'tranthiyenvy20@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>440</v>
       </c>
@@ -8057,13 +8143,16 @@
       <c r="G27" t="s">
         <v>577</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000027', N'Đinh Gia Vỹ', '16/10/1996', N'Vĩnh Phúc', '0711504619', 'dinhgiavy33@gmail.com')</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>834</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000027', N'Đinh Gia Vỹ', '16/10/1996', N'Vĩnh Phúc', '0711504619', 'dinhgiavy33@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>441</v>
       </c>
@@ -8082,13 +8171,16 @@
       <c r="G28" t="s">
         <v>578</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000028', N'Phú Anh Tuấn', '10/1/1997', N'Ninh Bình', '0863888062', 'phuanhtuan0@gmail.com')</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>834</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000028', N'Phú Anh Tuấn', '10/1/1997', N'Ninh Bình', '0863888062', 'phuanhtuan0@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>442</v>
       </c>
@@ -8107,13 +8199,16 @@
       <c r="G29" t="s">
         <v>579</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000029', N'Cao Quốc Thái', '21/7/1997', N'Thái Bình', '0231348475', 'caoquocthai66@gmail.com')</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>834</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000029', N'Cao Quốc Thái', '21/7/1997', N'Thái Bình', '0231348475', 'caoquocthai66@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>443</v>
       </c>
@@ -8132,13 +8227,16 @@
       <c r="G30" t="s">
         <v>580</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000030', N'Bùi Thị Ngọc Trân', '19/6/2001', N'Hưng Yên', '0494906186', 'buithingoctran62@gmail.com')</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>834</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000030', N'Bùi Thị Ngọc Trân', '19/6/2001', N'Hưng Yên', '0494906186', 'buithingoctran62@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>444</v>
       </c>
@@ -8157,13 +8255,16 @@
       <c r="G31" t="s">
         <v>581</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000031', N'Nguyễn Phương Trinh', '4/9/1998', N'Bắc Ninh', '0886151708', 'nguyenphuongtrinh76@gmail.com')</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>834</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000031', N'Nguyễn Phương Trinh', '4/9/1998', N'Bắc Ninh', '0886151708', 'nguyenphuongtrinh76@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>445</v>
       </c>
@@ -8182,13 +8283,16 @@
       <c r="G32" t="s">
         <v>582</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000032', N'Nguyễn Chí Vĩ', '2/11/2002', N'Hà Tây', '0814351524', 'nguyenchivi21@gmail.com')</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>834</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000032', N'Nguyễn Chí Vĩ', '2/11/2002', N'Hà Tây', '0814351524', 'nguyenchivi21@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>446</v>
       </c>
@@ -8207,13 +8311,16 @@
       <c r="G33" t="s">
         <v>583</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000033', N'Trần Thị Yến Vy', '21/1/2002', N'Hòa Bình', '0102453679', 'tranthiyenvy86@gmail.com')</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>834</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000033', N'Trần Thị Yến Vy', '21/1/2002', N'Hòa Bình', '0102453679', 'tranthiyenvy86@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>447</v>
       </c>
@@ -8232,13 +8339,16 @@
       <c r="G34" t="s">
         <v>584</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000034', N'Đinh Gia Vỹ', '8/7/2002', N'Bắc Kạn', '0104461626', 'dinhgiavy62@gmail.com')</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>834</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000034', N'Đinh Gia Vỹ', '8/7/2002', N'Bắc Kạn', '0104461626', 'dinhgiavy62@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>448</v>
       </c>
@@ -8257,13 +8367,16 @@
       <c r="G35" t="s">
         <v>585</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000035', N'Lý Vưu Thành Phú', '26/11/1999', N'Hải Phòng', '0605970759', 'lyvuuthanhphu75@gmail.com')</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>833</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000035', N'Lý Vưu Thành Phú', '26/11/1999', N'Hải Phòng', '0605970759', 'lyvuuthanhphu75@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>449</v>
       </c>
@@ -8282,13 +8395,16 @@
       <c r="G36" t="s">
         <v>586</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000036', N'Lê Thi Tú Quỳnh', '23/4/2003', N'Gia Lai', '0727438857', 'lethituquynh78@gmail.com')</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>833</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000036', N'Lê Thi Tú Quỳnh', '23/4/2003', N'Gia Lai', '0727438857', 'lethituquynh78@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>450</v>
       </c>
@@ -8307,13 +8423,16 @@
       <c r="G37" t="s">
         <v>587</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000037', N'Nguyễn Hoàng Sang', '1/7/2001', N'Khánh Hòa', '0698121183', 'nguyenhoangsang52@gmail.com')</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>834</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000037', N'Nguyễn Hoàng Sang', '1/7/2001', N'Khánh Hòa', '0698121183', 'nguyenhoangsang52@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>451</v>
       </c>
@@ -8332,13 +8451,16 @@
       <c r="G38" t="s">
         <v>588</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000038', N'Huỳnh Cẩm Tiên', '24/12/2000', N'Thái Bình', '0965334115', 'huynhcamtien54@gmail.com')</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>833</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000038', N'Huỳnh Cẩm Tiên', '24/12/2000', N'Thái Bình', '0965334115', 'huynhcamtien54@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>452</v>
       </c>
@@ -8357,13 +8479,16 @@
       <c r="G39" t="s">
         <v>589</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000039', N'Trần Chí Tình', '18/6/1999', N'Ninh Bình', '0608343321', 'tranchitinh88@gmail.com')</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>833</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000039', N'Trần Chí Tình', '18/6/1999', N'Ninh Bình', '0608343321', 'tranchitinh88@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>453</v>
       </c>
@@ -8382,13 +8507,16 @@
       <c r="G40" t="s">
         <v>590</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000040', N'Đặng Hoàng Túc', '9/6/1995', N'Thái Nguyên', '0786186136', 'danghoangtuc68@gmail.com')</v>
-      </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>834</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000040', N'Đặng Hoàng Túc', '9/6/1995', N'Thái Nguyên', '0786186136', 'danghoangtuc68@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>454</v>
       </c>
@@ -8407,13 +8535,16 @@
       <c r="G41" t="s">
         <v>591</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000041', N'Nguyễn Xuân Thành', '13/3/1998', N'Quảng Ninh', '0820847312', 'nguyenxuanthanh51@gmail.com')</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>833</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000041', N'Nguyễn Xuân Thành', '13/3/1998', N'Quảng Ninh', '0820847312', 'nguyenxuanthanh51@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>455</v>
       </c>
@@ -8432,13 +8563,16 @@
       <c r="G42" t="s">
         <v>592</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000042', N'Nguyễn Văn Thiện', '25/7/2001', N'Cà Mau', '0135367997', 'nguyenvanthien27@gmail.com')</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>833</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000042', N'Nguyễn Văn Thiện', '25/7/2001', N'Cà Mau', '0135367997', 'nguyenvanthien27@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>456</v>
       </c>
@@ -8457,13 +8591,16 @@
       <c r="G43" t="s">
         <v>593</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000043', N'Trần Mỹ Quyên', '25/8/1996', N'Thanh Hóa', '0418949196', 'tranmyquyen17@gmail.com')</v>
-      </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>833</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000043', N'Trần Mỹ Quyên', '25/8/1996', N'Thanh Hóa', '0418949196', 'tranmyquyen17@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>457</v>
       </c>
@@ -8482,13 +8619,16 @@
       <c r="G44" t="s">
         <v>594</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000044', N'Đinh Văn Sịn', '1/5/2003', N'Nam Định', '0974252174', 'dinhvansin64@gmail.com')</v>
-      </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>833</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000044', N'Đinh Văn Sịn', '1/5/2003', N'Nam Định', '0974252174', 'dinhvansin64@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>458</v>
       </c>
@@ -8507,13 +8647,16 @@
       <c r="G45" t="s">
         <v>595</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000045', N'Tạ Thanh Tài', '11/12/1999', N'Ninh Bình', '0484054328', 'tathanhtai38@gmail.com')</v>
-      </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>833</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000045', N'Tạ Thanh Tài', '11/12/1999', N'Ninh Bình', '0484054328', 'tathanhtai38@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>459</v>
       </c>
@@ -8532,13 +8675,16 @@
       <c r="G46" t="s">
         <v>596</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000046', N'Phan Thanh Tùng', '17/8/2001', N'Cao Bằng', '0192049489', 'phanthanhtung4@gmail.com')</v>
-      </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>834</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000046', N'Phan Thanh Tùng', '17/8/2001', N'Cao Bằng', '0192049489', 'phanthanhtung4@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>460</v>
       </c>
@@ -8557,13 +8703,16 @@
       <c r="G47" t="s">
         <v>597</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000047', N'Huỳnh Kim Thoa', '13/8/1998', N'Gia Lai', '0225977217', 'huynhkimthoa14@gmail.com')</v>
-      </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>833</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000047', N'Huỳnh Kim Thoa', '13/8/1998', N'Gia Lai', '0225977217', 'huynhkimthoa14@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>461</v>
       </c>
@@ -8582,13 +8731,16 @@
       <c r="G48" t="s">
         <v>598</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000048', N'Nguyễn Anh Thư', '11/10/2000', N'Cần Thơ', '0219945781', 'nguyenanhthu79@gmail.com')</v>
-      </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>833</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000048', N'Nguyễn Anh Thư', '11/10/2000', N'Cần Thơ', '0219945781', 'nguyenanhthu79@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>462</v>
       </c>
@@ -8607,13 +8759,16 @@
       <c r="G49" t="s">
         <v>599</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000049', N'Đặng Kiều Trang', '5/10/1996', N'Tiền Giang', '0847379749', 'dangkieutrang67@gmail.com')</v>
-      </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>833</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000049', N'Đặng Kiều Trang', '5/10/1996', N'Tiền Giang', '0847379749', 'dangkieutrang67@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>463</v>
       </c>
@@ -8632,13 +8787,16 @@
       <c r="G50" t="s">
         <v>600</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000050', N'Từ Gia Trấn', '6/4/2002', N'Thanh Hóa', '0476370472', 'tugiatran62@gmail.com')</v>
-      </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>834</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000050', N'Từ Gia Trấn', '6/4/2002', N'Thanh Hóa', '0476370472', 'tugiatran62@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>464</v>
       </c>
@@ -8657,13 +8815,16 @@
       <c r="G51" t="s">
         <v>601</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000051', N'Nguyễn Trần Thanh Trúc', '20/7/1998', N'Hà Giang', '0955146468', 'nguyentranthanhtruc46@gmail.com')</v>
-      </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>834</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000051', N'Nguyễn Trần Thanh Trúc', '20/7/1998', N'Hà Giang', '0955146468', 'nguyentranthanhtruc46@gmail.com', N'Nữ' )</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>653</v>
       </c>
@@ -8682,11 +8843,482 @@
       <c r="G52" t="s">
         <v>602</v>
       </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into DocGia values ('DG00000052', N'Huỳnh Nhật Trường', '7/11/1997', N'Nam Định', '0116712716', 'huynhnhattruong89@gmail.com')</v>
-      </c>
-      <c r="I52" s="4"/>
+      <c r="H52" t="s">
+        <v>833</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into DocGia values ('DG00000052', N'Huỳnh Nhật Trường', '7/11/1997', N'Nam Định', '0116712716', 'huynhnhattruong89@gmail.com', N'Nam' )</v>
+      </c>
+      <c r="J52" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(A1=1,"Nam","Nữ")</f>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B50" si="0">IF(A2=1,"Nam","Nữ")</f>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Nữ</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Nam</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
+++ b/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="8295" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NXB" sheetId="2" r:id="rId1"/>
@@ -4772,25 +4772,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L65"/>
+  <dimension ref="B2:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="E42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="139.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>158</v>
       </c>
@@ -4816,7 +4818,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -4837,6 +4839,10 @@
       </c>
       <c r="H3" t="s">
         <v>294</v>
+      </c>
+      <c r="I3">
+        <f ca="1">RANDBETWEEN(30,500)*1000</f>
+        <v>388000</v>
       </c>
       <c r="J3" t="str">
         <f>"insert into Sach values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', N'"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", '"&amp;G3&amp;"', "&amp;"'"&amp;H3&amp;"')"</f>
@@ -4849,8 +4855,12 @@
       <c r="L3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="str">
+        <f>"update sach set soluong = soluong*2 where masach= '"&amp;B3&amp;"'"</f>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000001'</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -4872,19 +4882,27 @@
       <c r="H4" t="s">
         <v>290</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I65" ca="1" si="0">RANDBETWEEN(30,500)*1000</f>
+        <v>446000</v>
+      </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J64" si="0">"insert into Sach values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', N'"&amp;D4&amp;"', "&amp;E4&amp;", "&amp;F4&amp;", '"&amp;G4&amp;"', "&amp;"'"&amp;H4&amp;"')"</f>
+        <f t="shared" ref="J4:J64" si="1">"insert into Sach values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', N'"&amp;D4&amp;"', "&amp;E4&amp;", "&amp;F4&amp;", '"&amp;G4&amp;"', "&amp;"'"&amp;H4&amp;"')"</f>
         <v>insert into Sach values ('MS00000002', N'Nước Mỹ nhìn từ bên trong', N'Dan Senor – Saul Singer', 20, 2015, 'XB00000009', 'VT00000002')</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K65" si="1">"VT"&amp;L4</f>
+        <f t="shared" ref="K4:K65" si="2">"VT"&amp;L4</f>
         <v>VT00000002</v>
       </c>
       <c r="L4" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M65" si="3">"update sach set soluong = soluong*2 where masach= '"&amp;B4&amp;"'"</f>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000002'</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -4906,19 +4924,27 @@
       <c r="H5" t="s">
         <v>286</v>
       </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>484000</v>
+      </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000003', N'Hòa bình, tình yêu và tự do', N'Steve Young', 25, 2015, 'XB00000020', 'VT00000001')</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L5" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000003'</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>167</v>
       </c>
@@ -4940,19 +4966,27 @@
       <c r="H6" t="s">
         <v>294</v>
       </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>242000</v>
+      </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000004', N'Đừng bao giờ đi ăn một mình', N'Michael Spencer', 50, 2016, 'XB00000044', 'VT00000003')</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L6" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000004'</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>168</v>
       </c>
@@ -4974,19 +5008,27 @@
       <c r="H7" t="s">
         <v>310</v>
       </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>148000</v>
+      </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000005', N'Ai che lưng cho bạn', N'Mark Tier', 31, 2020, 'XB00000037', 'VT00000007')</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L7" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000005'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>169</v>
       </c>
@@ -5008,19 +5050,27 @@
       <c r="H8" t="s">
         <v>322</v>
       </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>426000</v>
+      </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000006', N'Keynes và thế giới hậu khủng hoảng', N'Joseph Murphy', 25, 2019, 'XB00000038', 'VT00000010')</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L8" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000006'</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>170</v>
       </c>
@@ -5042,19 +5092,27 @@
       <c r="H9" t="s">
         <v>318</v>
       </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>227000</v>
+      </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000007', N'Nền giáo dục của người giàu', N'Debra Fine', 6, 2020, 'XB00000030', 'VT00000009')</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000009</v>
       </c>
       <c r="L9" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000007'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>171</v>
       </c>
@@ -5076,19 +5134,27 @@
       <c r="H10" t="s">
         <v>302</v>
       </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>456000</v>
+      </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000008', N'Khuyến học', N'Đặng Phong', 13, 2021, 'XB00000006', 'VT00000005')</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L10" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000008'</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>172</v>
       </c>
@@ -5110,19 +5176,27 @@
       <c r="H11" t="s">
         <v>294</v>
       </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>46000</v>
+      </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000009', N'Quốc gia khởi nghiệp', N'Vãn Tình', 15, 2020, 'XB00000034', 'VT00000003')</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L11" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000009'</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>173</v>
       </c>
@@ -5144,19 +5218,27 @@
       <c r="H12" t="s">
         <v>310</v>
       </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>161000</v>
+      </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000010', N'Khi bong bóng vỡ', N'Lê Văn Tề', 16, 2020, 'XB00000012', 'VT00000007')</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L12" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000010'</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -5178,19 +5260,27 @@
       <c r="H13" t="s">
         <v>310</v>
       </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>430000</v>
+      </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000011', N'Kinh tế học lãng mạn', N'Dale Carnegie', 15, 2020, 'XB00000026', 'VT00000007')</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L13" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000011'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>175</v>
       </c>
@@ -5212,19 +5302,27 @@
       <c r="H14" t="s">
         <v>306</v>
       </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>377000</v>
+      </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000012', N'Tri thức khách quan', N'Keith Ferrazzi', 42, 2018, 'XB00000046', 'VT00000006')</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L14" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000012'</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>176</v>
       </c>
@@ -5246,19 +5344,27 @@
       <c r="H15" t="s">
         <v>318</v>
       </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>216000</v>
+      </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000013', N'Chiến tranh tiền tệ', N'Clark A. Campbell &amp; Mick Campbell', 29, 2017, 'XB00000021', 'VT00000009')</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000009</v>
       </c>
       <c r="L15" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000013'</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>177</v>
       </c>
@@ -5280,19 +5386,27 @@
       <c r="H16" t="s">
         <v>322</v>
       </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>330000</v>
+      </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000014', N'Tiền không mọc trên cây', N'Neale S. Godfrey &amp; Carolina Edwards', 46, 2015, 'XB00000002', 'VT00000010')</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L16" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000014'</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>178</v>
       </c>
@@ -5314,19 +5428,27 @@
       <c r="H17" t="s">
         <v>294</v>
       </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000015', N'Phá rào kinh tế trong đêm trước đổi mới', N'Azit Nexin', 14, 2021, 'XB00000028', 'VT00000003')</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L17" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000015'</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>179</v>
       </c>
@@ -5348,19 +5470,27 @@
       <c r="H18" t="s">
         <v>306</v>
       </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>316000</v>
+      </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000016', N'Những đỉnh cao chỉ huy', N'Joseph Murphy', 49, 2021, 'XB00000043', 'VT00000006')</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L18" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000016'</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -5382,19 +5512,27 @@
       <c r="H19" t="s">
         <v>306</v>
       </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>438000</v>
+      </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000017', N'Sự hội tụ kế tiếp', N'Andrew Matthews', 31, 2017, 'XB00000008', 'VT00000006')</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L19" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000017'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>181</v>
       </c>
@@ -5416,19 +5554,27 @@
       <c r="H20" t="s">
         <v>290</v>
       </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>266000</v>
+      </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000018', N'Đồng tiền lên ngôi', N'Keynesian', 19, 2018, 'XB00000049', 'VT00000002')</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000002</v>
       </c>
       <c r="L20" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000018'</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>182</v>
       </c>
@@ -5450,19 +5596,27 @@
       <c r="H21" t="s">
         <v>306</v>
       </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>227000</v>
+      </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000019', N'Cuộc đào thoát vĩ đại', N'Sugahara Yuko', 40, 2020, 'XB00000036', 'VT00000006')</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L21" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000019'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>183</v>
       </c>
@@ -5484,19 +5638,27 @@
       <c r="H22" t="s">
         <v>290</v>
       </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>327000</v>
+      </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000020', N'Sự bí ẩn của vốn', N'Robert T.Kiyosaki', 35, 2021, 'XB00000037', 'VT00000002')</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000002</v>
       </c>
       <c r="L22" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000020'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>184</v>
       </c>
@@ -5518,19 +5680,27 @@
       <c r="H23" t="s">
         <v>322</v>
       </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>107000</v>
+      </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000021', N'Ý tưởng mới từ các kinh tế gia tiền bối', N'Debra Fine', 43, 2016, 'XB00000015', 'VT00000010')</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L23" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000021'</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -5552,19 +5722,27 @@
       <c r="H24" t="s">
         <v>302</v>
       </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>162000</v>
+      </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000022', N'Cách nền kinh tế vận hành', N'Dale Carnegie', 33, 2018, 'XB00000009', 'VT00000005')</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L24" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000022'</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>186</v>
       </c>
@@ -5586,19 +5764,27 @@
       <c r="H25" t="s">
         <v>322</v>
       </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>50000</v>
+      </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000023', N'Lựa chọn công', N'David Stabler', 26, 2016, 'XB00000001', 'VT00000010')</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L25" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000023'</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>187</v>
       </c>
@@ -5620,19 +5806,27 @@
       <c r="H26" t="s">
         <v>294</v>
       </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>421000</v>
+      </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000024', N'Em phải đến Harvard học kinh tế', N'David Stabler', 7, 2016, 'XB00000036', 'VT00000003')</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L26" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000024'</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>188</v>
       </c>
@@ -5654,19 +5848,27 @@
       <c r="H27" t="s">
         <v>294</v>
       </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>352000</v>
+      </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000025', N'Vượt lên chính mình', N'Donald Trump', 5, 2018, 'XB00000043', 'VT00000003')</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L27" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000025'</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -5688,19 +5890,27 @@
       <c r="H28" t="s">
         <v>306</v>
       </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>291000</v>
+      </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000026', N'Một tuần trong đời tỷ phú', N'Tony Buzan', 19, 2019, 'XB00000002', 'VT00000006')</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L28" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000026'</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>190</v>
       </c>
@@ -5722,19 +5932,27 @@
       <c r="H29" t="s">
         <v>322</v>
       </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>59000</v>
+      </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000027', N'Triết lý cuộc đời', N'Vãn Tình', 13, 2020, 'XB00000024', 'VT00000010')</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L29" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000027'</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>191</v>
       </c>
@@ -5756,19 +5974,27 @@
       <c r="H30" t="s">
         <v>290</v>
       </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>348000</v>
+      </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000028', N'Vị giám đốc 1 phút', N'Keynesian', 31, 2015, 'XB00000045', 'VT00000002')</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000002</v>
       </c>
       <c r="L30" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000028'</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>192</v>
       </c>
@@ -5790,19 +6016,27 @@
       <c r="H31" t="s">
         <v>298</v>
       </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="0"/>
+        <v>215000</v>
+      </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000029', N'Thiên tài được đào luyện như thế nào', N'Chung Ju Yung', 11, 2015, 'XB00000005', 'VT00000004')</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000004</v>
       </c>
       <c r="L31" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000029'</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>193</v>
       </c>
@@ -5824,19 +6058,27 @@
       <c r="H32" t="s">
         <v>286</v>
       </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="0"/>
+        <v>410000</v>
+      </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000030', N'Bí mật ngôi mộ Khổng Minh', N'Sugahara Yuko', 37, 2015, 'XB00000023', 'VT00000001')</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L32" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000030'</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>194</v>
       </c>
@@ -5858,19 +6100,27 @@
       <c r="H33" t="s">
         <v>322</v>
       </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="0"/>
+        <v>193000</v>
+      </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000032', N'Bán khống', N'Keith Ferrazzi', 36, 2021, 'XB00000028', 'VT00000010')</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L33" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000032'</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -5892,19 +6142,27 @@
       <c r="H34" t="s">
         <v>298</v>
       </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="0"/>
+        <v>375000</v>
+      </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000033', N'Để thành công trong chứng khoán', N'David Stabler', 45, 2015, 'XB00000046', 'VT00000004')</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000004</v>
       </c>
       <c r="L34" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000033'</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>196</v>
       </c>
@@ -5926,19 +6184,27 @@
       <c r="H35" t="s">
         <v>298</v>
       </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="0"/>
+        <v>197000</v>
+      </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000034', N'Bí quyết đầu tư &amp; kinh doanh chứng khoán', N'Song Hongbing', 42, 2017, 'XB00000047', 'VT00000004')</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000004</v>
       </c>
       <c r="L35" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000034'</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>197</v>
       </c>
@@ -5960,19 +6226,27 @@
       <c r="H36" t="s">
         <v>286</v>
       </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="0"/>
+        <v>81000</v>
+      </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000035', N'Tiền không phải là vấn đề', N'Todd G. Buchholz', 44, 2018, 'XB00000003', 'VT00000001')</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L36" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000035'</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>198</v>
       </c>
@@ -5994,19 +6268,27 @@
       <c r="H37" t="s">
         <v>290</v>
       </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="0"/>
+        <v>50000</v>
+      </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000036', N'Dạy con làm giàu (tập 1-5)', N'Steven E. Landsburg', 46, 2019, 'XB00000024', 'VT00000002')</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000002</v>
       </c>
       <c r="L37" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000036'</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>199</v>
       </c>
@@ -6028,19 +6310,27 @@
       <c r="H38" t="s">
         <v>306</v>
       </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="0"/>
+        <v>157000</v>
+      </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000037', N'Quản lý dự án trên 1 trang giấy', N'Vãn Tình', 30, 2019, 'XB00000046', 'VT00000006')</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L38" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000037'</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>200</v>
       </c>
@@ -6062,19 +6352,27 @@
       <c r="H39" t="s">
         <v>314</v>
       </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="0"/>
+        <v>191000</v>
+      </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000038', N'Hiểu nghề giữ nghiệp (ngành ngân hàng)', N'Tony Buổi sáng', 36, 2018, 'XB00000039', 'VT00000008')</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000008</v>
       </c>
       <c r="L39" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000038'</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>201</v>
       </c>
@@ -6096,19 +6394,27 @@
       <c r="H40" t="s">
         <v>302</v>
       </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="0"/>
+        <v>279000</v>
+      </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000039', N'The Ugly Duckling (song ngữ)', N'Dale Carnegie', 22, 2016, 'XB00000033', 'VT00000005')</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L40" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000039'</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>202</v>
       </c>
@@ -6130,19 +6436,27 @@
       <c r="H41" t="s">
         <v>318</v>
       </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="0"/>
+        <v>178000</v>
+      </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000041', N'Thời thơ ấu của các tổng thống Mỹ', N'Daniel Yergin &amp; Joseph Stanislaw', 46, 2021, 'XB00000035', 'VT00000009')</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000009</v>
       </c>
       <c r="L41" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000041'</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>203</v>
       </c>
@@ -6164,19 +6478,27 @@
       <c r="H42" t="s">
         <v>286</v>
       </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="0"/>
+        <v>225000</v>
+      </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000042', N'Sách kỹ năng', N'Steven E. Landsburg', 15, 2021, 'XB00000005', 'VT00000001')</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L42" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000042'</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>204</v>
       </c>
@@ -6198,19 +6520,27 @@
       <c r="H43" t="s">
         <v>306</v>
       </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="0"/>
+        <v>121000</v>
+      </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000043', N'Đời thay đổi khi chúng ta thay đổi', N'Debra Fine', 31, 2016, 'XB00000019', 'VT00000006')</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000006</v>
       </c>
       <c r="L43" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000043'</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>205</v>
       </c>
@@ -6232,19 +6562,27 @@
       <c r="H44" t="s">
         <v>322</v>
       </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="0"/>
+        <v>438000</v>
+      </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000045', N'Đến lúc rồi, tự lập thôi', N'Debra Fine', 47, 2017, 'XB00000045', 'VT00000010')</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L44" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000045'</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>206</v>
       </c>
@@ -6266,19 +6604,27 @@
       <c r="H45" t="s">
         <v>322</v>
       </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="0"/>
+        <v>162000</v>
+      </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000046', N'Bí mật ngôn ngữ cơ thể', N'Vãn Tình', 39, 2020, 'XB00000048', 'VT00000010')</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L45" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000046'</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>207</v>
       </c>
@@ -6300,19 +6646,27 @@
       <c r="H46" t="s">
         <v>318</v>
       </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="0"/>
+        <v>43000</v>
+      </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000047', N'Trên đường băng', N'Eamonn Butler', 47, 2021, 'XB00000020', 'VT00000009')</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000009</v>
       </c>
       <c r="L46" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000047'</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>208</v>
       </c>
@@ -6334,19 +6688,27 @@
       <c r="H47" t="s">
         <v>322</v>
       </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="0"/>
+        <v>38000</v>
+      </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000048', N'Cafe cùng Tony', N'Carol Kinsey Goman', 39, 2018, 'XB00000025', 'VT00000010')</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L47" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000048'</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>209</v>
       </c>
@@ -6368,19 +6730,27 @@
       <c r="H48" t="s">
         <v>294</v>
       </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="0"/>
+        <v>132000</v>
+      </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000049', N'Small Talk', N'Michael Lewis', 26, 2021, 'XB00000005', 'VT00000003')</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000003</v>
       </c>
       <c r="L48" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000049'</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>210</v>
       </c>
@@ -6402,19 +6772,27 @@
       <c r="H49" t="s">
         <v>310</v>
       </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="0"/>
+        <v>150000</v>
+      </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000050', N'Ngày xưa có 1 con bò (once upon a cow)', N'Ha-Joon Chang', 19, 2019, 'XB00000010', 'VT00000007')</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L49" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000050'</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>211</v>
       </c>
@@ -6436,19 +6814,27 @@
       <c r="H50" t="s">
         <v>322</v>
       </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="0"/>
+        <v>123000</v>
+      </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000051', N'Khéo ăn nói sẽ có được thiên hạ', N'Eamonn Butler', 50, 2020, 'XB00000042', 'VT00000010')</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L50" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000051'</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>212</v>
       </c>
@@ -6470,19 +6856,27 @@
       <c r="H51" t="s">
         <v>286</v>
       </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="0"/>
+        <v>468000</v>
+      </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000052', N'Vô cùng tàn nhẫn, vô cùng yêu thương', N'Fukuzawa Yukichi', 36, 2015, 'XB00000013', 'VT00000001')</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L51" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000052'</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>213</v>
       </c>
@@ -6504,19 +6898,27 @@
       <c r="H52" t="s">
         <v>310</v>
       </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="0"/>
+        <v>76000</v>
+      </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000053', N'Con cái chúng ta giỏi thật', N'Lê Thẩm Dương', 49, 2016, 'XB00000033', 'VT00000007')</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L52" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000053'</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>214</v>
       </c>
@@ -6538,19 +6940,27 @@
       <c r="H53" t="s">
         <v>314</v>
       </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="0"/>
+        <v>313000</v>
+      </c>
       <c r="J53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000054', N'Sức mạnh tiềm thức', N'Philip A. Fisher', 32, 2015, 'XB00000022', 'VT00000008')</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000008</v>
       </c>
       <c r="L53" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000054'</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>215</v>
       </c>
@@ -6572,19 +6982,27 @@
       <c r="H54" t="s">
         <v>322</v>
       </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="0"/>
+        <v>177000</v>
+      </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000055', N'Khí chất bao nhiêu, hạnh phúc bấy nhiêu', N'Đặng Phong', 35, 2018, 'XB00000050', 'VT00000010')</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L54" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000055'</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>216</v>
       </c>
@@ -6606,19 +7024,27 @@
       <c r="H55" t="s">
         <v>322</v>
       </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="0"/>
+        <v>448000</v>
+      </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000056', N'Cha mẹ Nhật dạy con tự lập', N'Chung Ju Yung', 33, 2021, 'XB00000030', 'VT00000010')</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000010</v>
       </c>
       <c r="L55" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000056'</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>217</v>
       </c>
@@ -6640,19 +7066,27 @@
       <c r="H56" t="s">
         <v>302</v>
       </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="0"/>
+        <v>184000</v>
+      </c>
       <c r="J56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000057', N'Lập bản đồ tư duy', N'Lê Thẩm Dương', 32, 2019, 'XB00000017', 'VT00000005')</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L56" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000057'</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>218</v>
       </c>
@@ -6674,19 +7108,27 @@
       <c r="H57" t="s">
         <v>302</v>
       </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="0"/>
+        <v>320000</v>
+      </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000058', N'Nói thế nào để được chào đón, làm thế nào để được ghi nhận', N'Lê Văn Tề', 41, 2021, 'XB00000014', 'VT00000005')</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L57" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000058'</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>219</v>
       </c>
@@ -6708,19 +7150,27 @@
       <c r="H58" t="s">
         <v>314</v>
       </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="0"/>
+        <v>151000</v>
+      </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000059', N'Cách khen, cách mắng, cách phạt con', N'Napoleon Hill', 6, 2020, 'XB00000009', 'VT00000008')</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000008</v>
       </c>
       <c r="L58" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000059'</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>220</v>
       </c>
@@ -6742,19 +7192,27 @@
       <c r="H59" t="s">
         <v>302</v>
       </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="0"/>
+        <v>227000</v>
+      </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000060', N'Bạn đắt giá bao nhiêu', N'Vãn Tình', 34, 2018, 'XB00000007', 'VT00000005')</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000005</v>
       </c>
       <c r="L59" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000060'</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>221</v>
       </c>
@@ -6776,19 +7234,27 @@
       <c r="H60" t="s">
         <v>286</v>
       </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="0"/>
+        <v>143000</v>
+      </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000061', N'Không bao giờ là thất bại, tất cả là thử thách', N'Vãn Tình', 11, 2020, 'XB00000016', 'VT00000001')</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000001</v>
       </c>
       <c r="L60" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000061'</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>222</v>
       </c>
@@ -6810,19 +7276,27 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="0"/>
+        <v>169000</v>
+      </c>
       <c r="J61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000062', N'Đắc nhân tâm', N'Camilo Cruz', 17, 2018, 'XB00000041', 'VT00000004')</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000004</v>
       </c>
       <c r="L61" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000062'</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>223</v>
       </c>
@@ -6844,19 +7318,27 @@
       <c r="H62" t="s">
         <v>314</v>
       </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="0"/>
+        <v>113000</v>
+      </c>
       <c r="J62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000063', N'Nghĩ giàu làm giàu', N'Tony Buổi sáng', 19, 2015, 'XB00000048', 'VT00000008')</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000008</v>
       </c>
       <c r="L62" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000063'</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>224</v>
       </c>
@@ -6878,19 +7360,27 @@
       <c r="H63" t="s">
         <v>314</v>
       </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="0"/>
+        <v>171000</v>
+      </c>
       <c r="J63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000064', N'Thuật hồi xuân cho nam nữ', N'Michael Ellsberg', 17, 2018, 'XB00000011', 'VT00000008')</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000008</v>
       </c>
       <c r="L63" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000064'</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>225</v>
       </c>
@@ -6912,19 +7402,27 @@
       <c r="H64" t="s">
         <v>310</v>
       </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="0"/>
+        <v>126000</v>
+      </c>
       <c r="J64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into Sach values ('MS00000065', N'Tử huyệt cảm xúc', N'Roger E. A. Farmer', 31, 2021, 'XB00000038', 'VT00000007')</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000007</v>
       </c>
       <c r="L64" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000065'</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>226</v>
       </c>
@@ -6945,17 +7443,25 @@
       </c>
       <c r="H65" t="s">
         <v>290</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="0"/>
+        <v>304000</v>
       </c>
       <c r="J65" t="str">
         <f>"insert into Sach values ('"&amp;B65&amp;"', N'"&amp;C65&amp;"', N'"&amp;D65&amp;"', "&amp;E65&amp;", "&amp;F65&amp;", '"&amp;G65&amp;"', "&amp;"'"&amp;H65&amp;"')"</f>
         <v>insert into Sach values ('MS00000066', N'Cảm xúc - kẻ thù số 1 của thành công', N'Vãn Tình', 14, 2019, 'XB00000022', 'VT00000002')</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VT00000002</v>
       </c>
       <c r="L65" t="s">
         <v>655</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="3"/>
+        <v>update sach set soluong = soluong*2 where masach= 'MS00000066'</v>
       </c>
     </row>
   </sheetData>
@@ -7406,8 +7912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I52"/>
+    <sheetView topLeftCell="G51" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
+++ b/PM_QuanLyThuVien/DataExcel/fullSach.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="820">
   <si>
     <t>Lên gác rút thang</t>
   </si>
@@ -1015,135 +1015,81 @@
     <t>Sách công nghệ thông tin</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000001',N'Sách công nghệ thông tin')</t>
-  </si>
-  <si>
     <t>Sách kế toán</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000002',N'Sách kế toán')</t>
-  </si>
-  <si>
     <t>sách Giải Trí</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000003',N'sách Giải Trí')</t>
-  </si>
-  <si>
     <t>sách Y Khoa</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000004',N'sách Y Khoa')</t>
-  </si>
-  <si>
     <t>sách Môi trường</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000005',N'sách Môi trường')</t>
-  </si>
-  <si>
     <t>sách Dược</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000006',N'sách Dược')</t>
-  </si>
-  <si>
     <t>sách Nhiếp ảnh</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000007',N'sách Nhiếp ảnh')</t>
-  </si>
-  <si>
     <t>sách Văn chương</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000008',N'sách Văn chương')</t>
-  </si>
-  <si>
     <t>sách Luật</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000009',N'sách Luật')</t>
-  </si>
-  <si>
     <t>sách Ngôn ngữ nước ngoài</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000010',N'sách Ngôn ngữ nước ngoài')</t>
-  </si>
-  <si>
     <t>LS00000011</t>
   </si>
   <si>
     <t>sách Giáo trình</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000011',N'sách Giáo trình')</t>
-  </si>
-  <si>
     <t>LS00000012</t>
   </si>
   <si>
     <t>sách Tạp chí</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000012',N'sách Tạp chí')</t>
-  </si>
-  <si>
     <t>LS00000013</t>
   </si>
   <si>
     <t>sách Hướng dẫn</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000013',N'sách Hướng dẫn')</t>
-  </si>
-  <si>
     <t>LS00000014</t>
   </si>
   <si>
     <t>sách Du lịch</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000014',N'sách Du lịch')</t>
-  </si>
-  <si>
     <t>LS00000015</t>
   </si>
   <si>
     <t>sách Sách kỹ năng</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000015',N'sách Sách kỹ năng')</t>
-  </si>
-  <si>
     <t>LS00000016</t>
   </si>
   <si>
     <t>sách Sách dành cho các em thiếu nhi</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000016',N'sách Sách dành cho các em thiếu nhi')</t>
-  </si>
-  <si>
     <t>LS00000017</t>
   </si>
   <si>
     <t>sách Thể loại sách chuyên ngành</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000017',N'sách Thể loại sách chuyên ngành')</t>
-  </si>
-  <si>
     <t>LS00000018</t>
   </si>
   <si>
     <t>sách Thể loại kinh tế, chính trị, xã hội</t>
   </si>
   <si>
-    <t>insert into LoaiSach values('LS00000018',N'sách Thể loại kinh tế, chính trị, xã hội')</t>
-  </si>
-  <si>
     <t>MaDG</t>
   </si>
   <si>
@@ -2534,6 +2480,15 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t>MAVT</t>
+  </si>
+  <si>
+    <t>MALOAI</t>
+  </si>
+  <si>
+    <t>Gia</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2604,6 +2559,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3262,13 +3218,13 @@
         <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,23 +3235,23 @@
         <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H31" si="0">"insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('"&amp;B3&amp;"', N'"&amp;C3&amp;"', N'"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"')"</f>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000001', N'Nhà xuất bản Chính trị Quốc gia', N'An Giang', '0699483347', 'nhaxuatbanchinhtriquocgia@gmail.com', 'chinhtriquocgia.edu.vn')</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,23 +3262,23 @@
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E4" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000002', N'Nhà xuất bản Tư pháp', N'Thừa Thiên - Huế', '0981106882', 'nhaxuatbantuphap@gmail.com', 'tuphap.edu.vn')</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3333,23 +3289,23 @@
         <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000003', N'Nhà xuất bản Hồng Đức', N'Bắc Giang', '0484569649', 'nhaxuatbanhongduc@gmail.com', 'hongduc.edu.vn')</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,23 +3316,23 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="E6" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000004', N'Nhà xuất bản Quân đội', N'Bắc Ninh', '0643803411', 'nhaxuatbanquandoi@gmail.com', 'quandoi.edu.vn')</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,23 +3343,23 @@
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000005', N'Nhà xuất bản Công an nhân dân', N'An Giang', '0550410356', 'nhaxuatbancongannhandan@gmail.com', 'congannhandan.edu.vn')</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,23 +3370,23 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000006', N'Nhà xuất bản Kim Đồng', N'Hậu Giang', '0775519360', 'nhaxuatbankimdong@gmail.com', 'kimdong.edu.vn')</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,23 +3397,23 @@
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000007', N'Nhà xuất bản Thanh niên', N'Thái Nguyên', '0214026549', 'nhaxuatbanthanhnien@gmail.com', 'thanhnien.edu.vn')</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,23 +3424,23 @@
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="E10" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000008', N'Nhà xuất bản Lao động', N'Quảng Ngãi', '0789677655', 'nhaxuatbanlaodong@gmail.com', 'laodong.edu.vn')</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,23 +3451,23 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="E11" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000009', N'Nhà xuất bản Phụ nữ', N'Tây Ninh', '0783790532', 'nhaxuatbanphunu@gmail.com', 'phunu.edu.vn')</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,23 +3478,23 @@
         <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000010', N'Nhà xuất bản Mỹ thuật', N'Bình Thuận', '0625146611', 'nhaxuatbanmythuat@gmail.com', 'mythuat.edu.vn')</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3549,23 +3505,23 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000011', N'Nhà xuất bản Sân khấu', N'Kon Tum', '0252065590', 'nhaxuatbansankhau@gmail.com', 'sankhau.edu.vn')</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,23 +3532,23 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E14" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000012', N'Nhà xuất bản Hội nhà văn', N'Thừa Thiên - Huế', '0629987185', 'nhaxuatbanhoinhavan@gmail.com', 'hoinhavan.edu.vn')</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3603,23 +3559,23 @@
         <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="E15" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000013', N'Nhà xuất bản Lao động xã hội', N'Hải Phòng ', '0326325548', 'nhaxuatbanlaodongxahoi@gmail.com', 'laodongxahoi.edu.vn')</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,23 +3586,23 @@
         <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="E16" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000014', N'Nhà xuất bản Khoa học xã hội', N'Yên Bái', '0993343251', 'nhaxuatbankhoahocxahoi@gmail.com', 'khoahocxahoi.edu.vn')</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3657,23 +3613,23 @@
         <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="E17" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000015', N'Nhà xuất bản Tôn giáo', N'Quảng Nam', '0378550310', 'nhaxuatbantongiao@gmail.com', 'tongiao.edu.vn')</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,23 +3640,23 @@
         <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E18" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000016', N'Nhà xuất bản Thông tấn', N'Cà Mau', '0906237986', 'nhaxuatbanthongtan@gmail.com', 'thongtan.edu.vn')</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,23 +3667,23 @@
         <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="E19" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000017', N'Nhà xuất bản Bản đồ', N'Lâm Đồng', '0934578085', 'nhaxuatbanbando@gmail.com', 'bando.edu.vn')</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3738,23 +3694,23 @@
         <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="E20" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000018', N'Nhà xuất bản Bưu điện', N'Hải Phòng', '0691913513', 'nhaxuatbanbuudien@gmail.com', 'buudien.edu.vn')</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,23 +3721,23 @@
         <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000019', N'Nhà xuất bản Giao thông', N'Phú Thọ', '0195164884', 'nhaxuatbangiaothong@gmail.com', 'giaothong.edu.vn')</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3792,23 +3748,23 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E22" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000020', N'Nhà xuất bản Khoa học và kỹ thuật', N'Thừa Thiên - Huế', '0431118897', 'nhaxuatbankhoahocvakythuat@gmail.com', 'khoahocvakythuat.edu.vn')</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,23 +3775,23 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000021', N'Nhà xuất bản Khoa học tự nhiên và Công nghệ', N'Cà Mau', '0578338053', 'nhaxuatbankhoahoctunhienvacongnghe@gmail.com', 'khoahoctunhienvacongnghe.edu.vn')</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,23 +3802,23 @@
         <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000022', N'Nhà xuất bản Nông nghiệp', N'Đồng Nai', '0196648735', 'nhaxuatbannongnghiep@gmail.com', 'nongnghiep.edu.vn')</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,23 +3829,23 @@
         <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E25" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000023', N'Nhà xuất bản Tài chính', N'Kiên Giang', '0386324313', 'nhaxuatbantaichinh@gmail.com', 'taichinh.edu.vn')</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,23 +3856,23 @@
         <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E26" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000024', N'Nhà xuất bản Thống kê', N'Gia Lai', '0937340216', 'nhaxuatbanthongke@gmail.com', 'thongke.edu.vn')</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,23 +3883,23 @@
         <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E27" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000025', N'Nhà xuất bản Thể dục thể thao', N'Vĩnh Phúc', '0711504619', 'nhaxuatbantheducthethao@gmail.com', 'theducthethao.edu.vn')</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,23 +3910,23 @@
         <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="E28" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000026', N'Nhà xuất bản Y học', N'Ninh Bình', '0863888062', 'nhaxuatbanyhoc@gmail.com', 'yhoc.edu.vn')</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3981,23 +3937,23 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E29" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000027', N'Nhà xuất bản Xây dựng', N'Thái Bình', '0231348475', 'nhaxuatbanxaydung@gmail.com', 'xaydung.edu.vn')</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,23 +3964,23 @@
         <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E30" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000028', N'Nhà xuất bản Từ điển bách khoa', N'Hưng Yên', '0494906186', 'nhaxuatbantudienbachkhoa@gmail.com', 'tudienbachkhoa.edu.vn')</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4035,23 +3991,23 @@
         <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="E31" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000029', N'Nhà xuất bản Tri thức', N'Bắc Ninh', '0886151708', 'nhaxuatbantrithuc@gmail.com', 'trithuc.edu.vn')</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,23 +4018,23 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="E32" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>"insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('"&amp;B32&amp;"', N'"&amp;C32&amp;"', N'"&amp;D32&amp;"', '"&amp;E32&amp;"', '"&amp;F32&amp;"', '"&amp;G32&amp;"')"</f>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000030', N'Nhà xuất bản Thế giới', N'Hà Tây', '0814351524', 'nhaxuatbanthegioi@gmail.com', 'thegioi.edu.vn')</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,23 +4045,23 @@
         <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E33" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" ref="H33:H57" si="1">"insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('"&amp;B33&amp;"', N'"&amp;C33&amp;"', N'"&amp;D33&amp;"', '"&amp;E33&amp;"', '"&amp;F33&amp;"', '"&amp;G33&amp;"')"</f>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000031', N'Nhà xuất bản Âm nhạc', N'Hòa Bình', '0102453679', 'nhaxuatbanamnhac@gmail.com', 'amnhac.edu.vn')</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,23 +4072,23 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E34" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000032', N'Nhà xuất bản Văn học', N'Bắc Kạn', '0104461626', 'nhaxuatbanvanhoc@gmail.com', 'vanhoc.edu.vn')</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,23 +4099,23 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="E35" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000033', N'Nhà xuất bản Văn hoá dân tộc', N'Hải Phòng', '0605970759', 'nhaxuatbanvanhoadantoc@gmail.com', 'vanhoadantoc.edu.vn')</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,23 +4126,23 @@
         <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E36" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000034', N'Nhà xuất bản Văn hoá - Thông tin', N'Gia Lai', '0727438857', 'nhaxuatbanvanhoa-thongtin@gmail.com', 'vanhoa-thongtin.edu.vn')</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,23 +4153,23 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="E37" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000035', N'Nhà xuất bản Lý luận chính trị', N'Khánh Hòa', '0698121183', 'nhaxuatbanlyluanchinhtri@gmail.com', 'lyluanchinhtri.edu.vn')</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4224,23 +4180,23 @@
         <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E38" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000036', N'Nhà xuất bản Đại học kinh tế quốc dân', N'Thái Bình', '0965334115', 'nhaxuatbandaihockinhtequocdan@gmail.com', 'daihockinhtequocdan.edu.vn')</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,23 +4207,23 @@
         <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="E39" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000037', N'Nhà xuất bản Đại học Bách khoa Hà Nội', N'Ninh Bình', '0608343321', 'nhaxuatbandaihocbachkhoahanoi@gmail.com', 'daihocbachkhoahanoi.edu.vn')</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,23 +4234,23 @@
         <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E40" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000038', N'Nhà xuất bản Đại học Huế', N'Thái Nguyên', '0786186136', 'nhaxuatbandaihochue@gmail.com', 'daihochue.edu.vn')</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,23 +4261,23 @@
         <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="E41" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000039', N'Nhà xuất bản Đại học Quốc gia Hà Nội', N'Quảng Ninh', '0820847312', 'nhaxuatbandaihocquocgiahanoi@gmail.com', 'daihocquocgiahanoi.edu.vn')</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,23 +4288,23 @@
         <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E42" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000040', N'Nhà xuất bản Đại học sư phạm', N'Cà Mau', '0135367997', 'nhaxuatbandaihocsupham@gmail.com', 'daihocsupham.edu.vn')</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -4359,23 +4315,23 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E43" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000041', N'Nhà xuất bản Đại học Quốc gia thành phố Hồ Chí Minh', N'Thanh Hóa', '0418949196', 'nhaxuatbandaihocquocgiathanhphohochiminh@gmail.com', 'daihocquocgiathanhphohochiminh.edu.vn')</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4386,23 +4342,23 @@
         <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="E44" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000042', N'Nhà xuất bản Giáo dục', N'Nam Định', '0974252174', 'nhaxuatbangiaoduc@gmail.com', 'giaoduc.edu.vn')</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4413,23 +4369,23 @@
         <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="E45" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000043', N'Nhà xuất bản Đại học Thái Nguyên', N'Ninh Bình', '0484054328', 'nhaxuatbandaihocthainguyen@gmail.com', 'daihocthainguyen.edu.vn')</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,23 +4396,23 @@
         <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="E46" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000044', N'Nhà xuất bản Hà Nội', N'Cao Bằng', '0192049489', 'nhaxuatbanhanoi@gmail.com', 'hanoi.edu.vn')</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,23 +4423,23 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E47" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000045', N'Nhà xuất bản Hải phòng', N'Gia Lai', '0225977217', 'nhaxuatbanhaiphong@gmail.com', 'haiphong.edu.vn')</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4494,23 +4450,23 @@
         <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="E48" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000046', N'Nhà xuất bản Thanh Hoá', N'Cần Thơ', '0219945781', 'nhaxuatbanthanhhoa@gmail.com', 'thanhhoa.edu.vn')</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4521,23 +4477,23 @@
         <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E49" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000047', N'Nhà xuất bản Nghệ An', N'Tiền Giang', '0847379749', 'nhaxuatbannghean@gmail.com', 'nghean.edu.vn')</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4548,23 +4504,23 @@
         <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E50" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000048', N'Nhà xuất bản Thuận Hoá', N'Thanh Hóa', '0476370472', 'nhaxuatbanthuanhoa@gmail.com', 'thuanhoa.edu.vn')</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,23 +4531,23 @@
         <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E51" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000049', N'Nhà xuất bản Đà Nẵng', N'Hà Giang', '0955146468', 'nhaxuatbandanang@gmail.com', 'danang.edu.vn')</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,23 +4558,23 @@
         <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="E52" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000050', N'Nhà xuất bản Văn hoá Sài gòn', N'Nam Định', '0116712716', 'nhaxuatbanvanhoasaigon@gmail.com', 'vanhoasaigon.edu.vn')</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,23 +4585,23 @@
         <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="E53" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000051', N'Nhà xuất bản Tổng hợp thành phố Hồ Chí Minh', N'Ninh Bình', '0219945781', 'nhaxuatbantonghopthanhphohochiminh@gmail.com', 'tonghopthanhphohochiminh.edu.vn')</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,23 +4612,23 @@
         <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="E54" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000052', N'Nhà xuất bản Trẻ', N'Cao Bằng', '0847379749', 'nhaxuatbantre@gmail.com', 'tre.edu.vn')</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,23 +4639,23 @@
         <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000053', N'Nhà xuất bản Văn nghệ', N'Gia Lai', '0476370472', 'nhaxuatbanvannghe@gmail.com', 'vannghe.edu.vn')</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,23 +4666,23 @@
         <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="E56" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000054', N'Nhà xuất bản Đồng Nai', N'Cần Thơ', '0955146468', 'nhaxuatbandongnai@gmail.com', 'dongnai.edu.vn')</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4737,23 +4693,23 @@
         <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E57" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>insert into NXB (Manxb,tennxb, diachi,sdt,email,websize)  values('XB00000055', N'Nhà xuất bản Phương Đông', N'Tiền Giang', '0116712716', 'nhaxuatbanphuongdong@gmail.com', 'phuongdong.edu.vn')</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4774,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M65"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,8 +4743,9 @@
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="144.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4812,7 +4769,10 @@
         <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>818</v>
+      </c>
+      <c r="I2" t="s">
+        <v>819</v>
       </c>
       <c r="J2" t="s">
         <v>272</v>
@@ -4832,28 +4792,30 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>2019</v>
+        <f ca="1">RANDBETWEEN(1990,2021)</f>
+        <v>1991</v>
       </c>
       <c r="G3" t="s">
         <v>262</v>
       </c>
-      <c r="H3" t="s">
-        <v>294</v>
+      <c r="H3" t="str">
+        <f>K3</f>
+        <v>LS00000003</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(30,500)*1000</f>
-        <v>388000</v>
+        <v>94000</v>
       </c>
       <c r="J3" t="str">
-        <f>"insert into Sach values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', N'"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", '"&amp;G3&amp;"', "&amp;"'"&amp;H3&amp;"')"</f>
-        <v>insert into Sach values ('MS00000001', N'Lên gác rút thang', N'Carol Kinsey Goman', 36, 2019, 'XB00000025', 'VT00000003')</v>
+        <f ca="1">"insert into Sach values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', N'"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", '"&amp;G3&amp;"', "&amp;"'"&amp;H3&amp;"', "&amp; I3&amp;")"</f>
+        <v>insert into Sach values ('MS00000001', N'Lên gác rút thang', N'Carol Kinsey Goman', 36, 1991, 'XB00000025', 'LS00000003', 94000)</v>
       </c>
       <c r="K3" t="str">
-        <f>"VT"&amp;L3</f>
-        <v>VT00000003</v>
-      </c>
-      <c r="L3" t="s">
-        <v>654</v>
+        <f>"LS"&amp;L3</f>
+        <v>LS00000003</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>636</v>
       </c>
       <c r="M3" t="str">
         <f>"update sach set soluong = soluong*2 where masach= '"&amp;B3&amp;"'"</f>
@@ -4874,31 +4836,33 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2015</v>
+        <f t="shared" ref="F4:F65" ca="1" si="0">RANDBETWEEN(1990,2021)</f>
+        <v>2011</v>
       </c>
       <c r="G4" t="s">
         <v>229</v>
       </c>
-      <c r="H4" t="s">
-        <v>290</v>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H65" si="1">K4</f>
+        <v>LS00000002</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I65" ca="1" si="0">RANDBETWEEN(30,500)*1000</f>
-        <v>446000</v>
+        <f t="shared" ref="I4:I65" ca="1" si="2">RANDBETWEEN(30,500)*1000</f>
+        <v>39000</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J64" si="1">"insert into Sach values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', N'"&amp;D4&amp;"', "&amp;E4&amp;", "&amp;F4&amp;", '"&amp;G4&amp;"', "&amp;"'"&amp;H4&amp;"')"</f>
-        <v>insert into Sach values ('MS00000002', N'Nước Mỹ nhìn từ bên trong', N'Dan Senor – Saul Singer', 20, 2015, 'XB00000009', 'VT00000002')</v>
+        <f t="shared" ref="J4:J65" ca="1" si="3">"insert into Sach values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', N'"&amp;D4&amp;"', "&amp;E4&amp;", "&amp;F4&amp;", '"&amp;G4&amp;"', "&amp;"'"&amp;H4&amp;"', "&amp; I4&amp;")"</f>
+        <v>insert into Sach values ('MS00000002', N'Nước Mỹ nhìn từ bên trong', N'Dan Senor – Saul Singer', 20, 2011, 'XB00000009', 'LS00000002', 39000)</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K65" si="2">"VT"&amp;L4</f>
-        <v>VT00000002</v>
+        <f t="shared" ref="K4:K65" si="4">"LS"&amp;L4</f>
+        <v>LS00000002</v>
       </c>
       <c r="L4" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M65" si="3">"update sach set soluong = soluong*2 where masach= '"&amp;B4&amp;"'"</f>
+        <f t="shared" ref="M4:M65" si="5">"update sach set soluong = soluong*2 where masach= '"&amp;B4&amp;"'"</f>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000002'</v>
       </c>
     </row>
@@ -4916,31 +4880,33 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2002</v>
       </c>
       <c r="G5" t="s">
         <v>231</v>
       </c>
-      <c r="H5" t="s">
-        <v>286</v>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>484000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>480000</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000003', N'Hòa bình, tình yêu và tự do', N'Steve Young', 25, 2015, 'XB00000020', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000003', N'Hòa bình, tình yêu và tự do', N'Steve Young', 25, 2002, 'XB00000020', 'LS00000001', 480000)</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L5" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000003'</v>
       </c>
     </row>
@@ -4958,31 +4924,33 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2019</v>
       </c>
       <c r="G6" t="s">
         <v>233</v>
       </c>
-      <c r="H6" t="s">
-        <v>294</v>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>242000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>324000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000004', N'Đừng bao giờ đi ăn một mình', N'Michael Spencer', 50, 2016, 'XB00000044', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000004', N'Đừng bao giờ đi ăn một mình', N'Michael Spencer', 50, 2019, 'XB00000044', 'LS00000003', 324000)</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L6" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000004'</v>
       </c>
     </row>
@@ -5000,31 +4968,33 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1991</v>
       </c>
       <c r="G7" t="s">
         <v>234</v>
       </c>
-      <c r="H7" t="s">
-        <v>310</v>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>148000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>451000</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000005', N'Ai che lưng cho bạn', N'Mark Tier', 31, 2020, 'XB00000037', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000005', N'Ai che lưng cho bạn', N'Mark Tier', 31, 1991, 'XB00000037', 'LS00000007', 451000)</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L7" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000005'</v>
       </c>
     </row>
@@ -5042,31 +5012,33 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1998</v>
       </c>
       <c r="G8" t="s">
         <v>236</v>
       </c>
-      <c r="H8" t="s">
-        <v>322</v>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>426000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>350000</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000006', N'Keynes và thế giới hậu khủng hoảng', N'Joseph Murphy', 25, 2019, 'XB00000038', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000006', N'Keynes và thế giới hậu khủng hoảng', N'Joseph Murphy', 25, 1998, 'XB00000038', 'LS00000010', 350000)</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L8" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000006'</v>
       </c>
     </row>
@@ -5084,31 +5056,33 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2004</v>
       </c>
       <c r="G9" t="s">
         <v>238</v>
       </c>
-      <c r="H9" t="s">
-        <v>318</v>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000009</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>227000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57000</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000007', N'Nền giáo dục của người giàu', N'Debra Fine', 6, 2020, 'XB00000030', 'VT00000009')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000007', N'Nền giáo dục của người giàu', N'Debra Fine', 6, 2004, 'XB00000030', 'LS00000009', 57000)</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000009</v>
+        <f t="shared" si="4"/>
+        <v>LS00000009</v>
       </c>
       <c r="L9" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000007'</v>
       </c>
     </row>
@@ -5126,31 +5100,33 @@
         <v>13</v>
       </c>
       <c r="F10">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1990</v>
       </c>
       <c r="G10" t="s">
         <v>239</v>
       </c>
-      <c r="H10" t="s">
-        <v>302</v>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>456000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>216000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000008', N'Khuyến học', N'Đặng Phong', 13, 2021, 'XB00000006', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000008', N'Khuyến học', N'Đặng Phong', 13, 1990, 'XB00000006', 'LS00000005', 216000)</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L10" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="3"/>
+        <f>"update sach set soluong = soluong*2 where masach= '"&amp;B10&amp;"'"</f>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000008'</v>
       </c>
     </row>
@@ -5168,31 +5144,33 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1991</v>
       </c>
       <c r="G11" t="s">
         <v>241</v>
       </c>
-      <c r="H11" t="s">
-        <v>294</v>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>46000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>166000</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000009', N'Quốc gia khởi nghiệp', N'Vãn Tình', 15, 2020, 'XB00000034', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000009', N'Quốc gia khởi nghiệp', N'Vãn Tình', 15, 1991, 'XB00000034', 'LS00000003', 166000)</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L11" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000009'</v>
       </c>
     </row>
@@ -5210,31 +5188,33 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2006</v>
       </c>
       <c r="G12" t="s">
         <v>242</v>
       </c>
-      <c r="H12" t="s">
-        <v>310</v>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>161000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>475000</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000010', N'Khi bong bóng vỡ', N'Lê Văn Tề', 16, 2020, 'XB00000012', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000010', N'Khi bong bóng vỡ', N'Lê Văn Tề', 16, 2006, 'XB00000012', 'LS00000007', 475000)</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L12" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000010'</v>
       </c>
     </row>
@@ -5252,31 +5232,33 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2007</v>
       </c>
       <c r="G13" t="s">
         <v>243</v>
       </c>
-      <c r="H13" t="s">
-        <v>310</v>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>430000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>500000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000011', N'Kinh tế học lãng mạn', N'Dale Carnegie', 15, 2020, 'XB00000026', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000011', N'Kinh tế học lãng mạn', N'Dale Carnegie', 15, 2007, 'XB00000026', 'LS00000007', 500000)</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L13" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000011'</v>
       </c>
     </row>
@@ -5294,31 +5276,33 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
       </c>
       <c r="G14" t="s">
         <v>244</v>
       </c>
-      <c r="H14" t="s">
-        <v>306</v>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>377000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>416000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000012', N'Tri thức khách quan', N'Keith Ferrazzi', 42, 2018, 'XB00000046', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000012', N'Tri thức khách quan', N'Keith Ferrazzi', 42, 2010, 'XB00000046', 'LS00000006', 416000)</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L14" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000012'</v>
       </c>
     </row>
@@ -5336,31 +5320,33 @@
         <v>29</v>
       </c>
       <c r="F15">
-        <v>2017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G15" t="s">
         <v>245</v>
       </c>
-      <c r="H15" t="s">
-        <v>318</v>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000009</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>216000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>204000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000013', N'Chiến tranh tiền tệ', N'Clark A. Campbell &amp; Mick Campbell', 29, 2017, 'XB00000021', 'VT00000009')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000013', N'Chiến tranh tiền tệ', N'Clark A. Campbell &amp; Mick Campbell', 29, 2009, 'XB00000021', 'LS00000009', 204000)</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000009</v>
+        <f t="shared" si="4"/>
+        <v>LS00000009</v>
       </c>
       <c r="L15" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000013'</v>
       </c>
     </row>
@@ -5378,31 +5364,33 @@
         <v>46</v>
       </c>
       <c r="F16">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2003</v>
       </c>
       <c r="G16" t="s">
         <v>230</v>
       </c>
-      <c r="H16" t="s">
-        <v>322</v>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>330000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>270000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000014', N'Tiền không mọc trên cây', N'Neale S. Godfrey &amp; Carolina Edwards', 46, 2015, 'XB00000002', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000014', N'Tiền không mọc trên cây', N'Neale S. Godfrey &amp; Carolina Edwards', 46, 2003, 'XB00000002', 'LS00000010', 270000)</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L16" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000014'</v>
       </c>
     </row>
@@ -5420,31 +5408,33 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1990</v>
       </c>
       <c r="G17" t="s">
         <v>246</v>
       </c>
-      <c r="H17" t="s">
-        <v>294</v>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="0"/>
-        <v>30000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>449000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000015', N'Phá rào kinh tế trong đêm trước đổi mới', N'Azit Nexin', 14, 2021, 'XB00000028', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000015', N'Phá rào kinh tế trong đêm trước đổi mới', N'Azit Nexin', 14, 1990, 'XB00000028', 'LS00000003', 449000)</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L17" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000015'</v>
       </c>
     </row>
@@ -5462,31 +5452,33 @@
         <v>49</v>
       </c>
       <c r="F18">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1995</v>
       </c>
       <c r="G18" t="s">
         <v>247</v>
       </c>
-      <c r="H18" t="s">
-        <v>306</v>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="0"/>
-        <v>316000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>472000</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000016', N'Những đỉnh cao chỉ huy', N'Joseph Murphy', 49, 2021, 'XB00000043', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000016', N'Những đỉnh cao chỉ huy', N'Joseph Murphy', 49, 1995, 'XB00000043', 'LS00000006', 472000)</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L18" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000016'</v>
       </c>
     </row>
@@ -5504,31 +5496,33 @@
         <v>31</v>
       </c>
       <c r="F19">
-        <v>2017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2004</v>
       </c>
       <c r="G19" t="s">
         <v>248</v>
       </c>
-      <c r="H19" t="s">
-        <v>306</v>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="0"/>
-        <v>438000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>145000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000017', N'Sự hội tụ kế tiếp', N'Andrew Matthews', 31, 2017, 'XB00000008', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000017', N'Sự hội tụ kế tiếp', N'Andrew Matthews', 31, 2004, 'XB00000008', 'LS00000006', 145000)</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L19" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000017'</v>
       </c>
     </row>
@@ -5546,31 +5540,33 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2020</v>
       </c>
       <c r="G20" t="s">
         <v>249</v>
       </c>
-      <c r="H20" t="s">
-        <v>290</v>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000002</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="0"/>
-        <v>266000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>413000</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000018', N'Đồng tiền lên ngôi', N'Keynesian', 19, 2018, 'XB00000049', 'VT00000002')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000018', N'Đồng tiền lên ngôi', N'Keynesian', 19, 2020, 'XB00000049', 'LS00000002', 413000)</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000002</v>
+        <f t="shared" si="4"/>
+        <v>LS00000002</v>
       </c>
       <c r="L20" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000018'</v>
       </c>
     </row>
@@ -5588,31 +5584,33 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
       </c>
       <c r="G21" t="s">
         <v>250</v>
       </c>
-      <c r="H21" t="s">
-        <v>306</v>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="0"/>
-        <v>227000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>256000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000019', N'Cuộc đào thoát vĩ đại', N'Sugahara Yuko', 40, 2020, 'XB00000036', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000019', N'Cuộc đào thoát vĩ đại', N'Sugahara Yuko', 40, 2010, 'XB00000036', 'LS00000006', 256000)</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L21" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000019'</v>
       </c>
     </row>
@@ -5630,31 +5628,33 @@
         <v>35</v>
       </c>
       <c r="F22">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2007</v>
       </c>
       <c r="G22" t="s">
         <v>234</v>
       </c>
-      <c r="H22" t="s">
-        <v>290</v>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000002</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="0"/>
-        <v>327000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>305000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000020', N'Sự bí ẩn của vốn', N'Robert T.Kiyosaki', 35, 2021, 'XB00000037', 'VT00000002')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000020', N'Sự bí ẩn của vốn', N'Robert T.Kiyosaki', 35, 2007, 'XB00000037', 'LS00000002', 305000)</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000002</v>
+        <f t="shared" si="4"/>
+        <v>LS00000002</v>
       </c>
       <c r="L22" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000020'</v>
       </c>
     </row>
@@ -5672,31 +5672,33 @@
         <v>43</v>
       </c>
       <c r="F23">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2006</v>
       </c>
       <c r="G23" t="s">
         <v>251</v>
       </c>
-      <c r="H23" t="s">
-        <v>322</v>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="0"/>
-        <v>107000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>256000</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000021', N'Ý tưởng mới từ các kinh tế gia tiền bối', N'Debra Fine', 43, 2016, 'XB00000015', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000021', N'Ý tưởng mới từ các kinh tế gia tiền bối', N'Debra Fine', 43, 2006, 'XB00000015', 'LS00000010', 256000)</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L23" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000021'</v>
       </c>
     </row>
@@ -5714,31 +5716,33 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1998</v>
       </c>
       <c r="G24" t="s">
         <v>229</v>
       </c>
-      <c r="H24" t="s">
-        <v>302</v>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I24">
-        <f t="shared" ca="1" si="0"/>
-        <v>162000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>372000</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000022', N'Cách nền kinh tế vận hành', N'Dale Carnegie', 33, 2018, 'XB00000009', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000022', N'Cách nền kinh tế vận hành', N'Dale Carnegie', 33, 1998, 'XB00000009', 'LS00000005', 372000)</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L24" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000022'</v>
       </c>
     </row>
@@ -5756,31 +5760,33 @@
         <v>26</v>
       </c>
       <c r="F25">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2013</v>
       </c>
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" t="s">
-        <v>322</v>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I25">
-        <f t="shared" ca="1" si="0"/>
-        <v>50000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>316000</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000023', N'Lựa chọn công', N'David Stabler', 26, 2016, 'XB00000001', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000023', N'Lựa chọn công', N'David Stabler', 26, 2013, 'XB00000001', 'LS00000010', 316000)</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L25" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000023'</v>
       </c>
     </row>
@@ -5798,31 +5804,33 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2019</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
       </c>
-      <c r="H26" t="s">
-        <v>294</v>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I26">
-        <f t="shared" ca="1" si="0"/>
-        <v>421000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>366000</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000024', N'Em phải đến Harvard học kinh tế', N'David Stabler', 7, 2016, 'XB00000036', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000024', N'Em phải đến Harvard học kinh tế', N'David Stabler', 7, 2019, 'XB00000036', 'LS00000003', 366000)</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000024'</v>
       </c>
     </row>
@@ -5840,31 +5848,33 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G27" t="s">
         <v>247</v>
       </c>
-      <c r="H27" t="s">
-        <v>294</v>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I27">
-        <f t="shared" ca="1" si="0"/>
-        <v>352000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>252000</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000025', N'Vượt lên chính mình', N'Donald Trump', 5, 2018, 'XB00000043', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000025', N'Vượt lên chính mình', N'Donald Trump', 5, 2009, 'XB00000043', 'LS00000003', 252000)</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L27" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000025'</v>
       </c>
     </row>
@@ -5882,31 +5892,33 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2003</v>
       </c>
       <c r="G28" t="s">
         <v>230</v>
       </c>
-      <c r="H28" t="s">
-        <v>306</v>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="0"/>
-        <v>291000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>383000</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000026', N'Một tuần trong đời tỷ phú', N'Tony Buzan', 19, 2019, 'XB00000002', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000026', N'Một tuần trong đời tỷ phú', N'Tony Buzan', 19, 2003, 'XB00000002', 'LS00000006', 383000)</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L28" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000026'</v>
       </c>
     </row>
@@ -5924,31 +5936,33 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1993</v>
       </c>
       <c r="G29" t="s">
         <v>252</v>
       </c>
-      <c r="H29" t="s">
-        <v>322</v>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="0"/>
-        <v>59000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>492000</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000027', N'Triết lý cuộc đời', N'Vãn Tình', 13, 2020, 'XB00000024', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000027', N'Triết lý cuộc đời', N'Vãn Tình', 13, 1993, 'XB00000024', 'LS00000010', 492000)</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L29" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000027'</v>
       </c>
     </row>
@@ -5966,31 +5980,33 @@
         <v>31</v>
       </c>
       <c r="F30">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2007</v>
       </c>
       <c r="G30" t="s">
         <v>253</v>
       </c>
-      <c r="H30" t="s">
-        <v>290</v>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000002</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="0"/>
-        <v>348000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>204000</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000028', N'Vị giám đốc 1 phút', N'Keynesian', 31, 2015, 'XB00000045', 'VT00000002')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000028', N'Vị giám đốc 1 phút', N'Keynesian', 31, 2007, 'XB00000045', 'LS00000002', 204000)</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000002</v>
+        <f t="shared" si="4"/>
+        <v>LS00000002</v>
       </c>
       <c r="L30" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000028'</v>
       </c>
     </row>
@@ -6008,31 +6024,33 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1996</v>
       </c>
       <c r="G31" t="s">
         <v>240</v>
       </c>
-      <c r="H31" t="s">
-        <v>298</v>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000004</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="0"/>
-        <v>215000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>337000</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000029', N'Thiên tài được đào luyện như thế nào', N'Chung Ju Yung', 11, 2015, 'XB00000005', 'VT00000004')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000029', N'Thiên tài được đào luyện như thế nào', N'Chung Ju Yung', 11, 1996, 'XB00000005', 'LS00000004', 337000)</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000004</v>
+        <f t="shared" si="4"/>
+        <v>LS00000004</v>
       </c>
       <c r="L31" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000029'</v>
       </c>
     </row>
@@ -6050,31 +6068,33 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1991</v>
       </c>
       <c r="G32" t="s">
         <v>255</v>
       </c>
-      <c r="H32" t="s">
-        <v>286</v>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I32">
-        <f t="shared" ca="1" si="0"/>
-        <v>410000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>210000</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000030', N'Bí mật ngôi mộ Khổng Minh', N'Sugahara Yuko', 37, 2015, 'XB00000023', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000030', N'Bí mật ngôi mộ Khổng Minh', N'Sugahara Yuko', 37, 1991, 'XB00000023', 'LS00000001', 210000)</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L32" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000030'</v>
       </c>
     </row>
@@ -6092,31 +6112,33 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2017</v>
       </c>
       <c r="G33" t="s">
         <v>246</v>
       </c>
-      <c r="H33" t="s">
-        <v>322</v>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="0"/>
-        <v>193000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>149000</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000032', N'Bán khống', N'Keith Ferrazzi', 36, 2021, 'XB00000028', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000032', N'Bán khống', N'Keith Ferrazzi', 36, 2017, 'XB00000028', 'LS00000010', 149000)</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L33" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000032'</v>
       </c>
     </row>
@@ -6134,31 +6156,33 @@
         <v>45</v>
       </c>
       <c r="F34">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2017</v>
       </c>
       <c r="G34" t="s">
         <v>244</v>
       </c>
-      <c r="H34" t="s">
-        <v>298</v>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000004</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="0"/>
-        <v>375000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>450000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000033', N'Để thành công trong chứng khoán', N'David Stabler', 45, 2015, 'XB00000046', 'VT00000004')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000033', N'Để thành công trong chứng khoán', N'David Stabler', 45, 2017, 'XB00000046', 'LS00000004', 450000)</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000004</v>
+        <f t="shared" si="4"/>
+        <v>LS00000004</v>
       </c>
       <c r="L34" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000033'</v>
       </c>
     </row>
@@ -6176,31 +6200,33 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>2017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="G35" t="s">
         <v>256</v>
       </c>
-      <c r="H35" t="s">
-        <v>298</v>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000004</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="0"/>
-        <v>197000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>153000</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000034', N'Bí quyết đầu tư &amp; kinh doanh chứng khoán', N'Song Hongbing', 42, 2017, 'XB00000047', 'VT00000004')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000034', N'Bí quyết đầu tư &amp; kinh doanh chứng khoán', N'Song Hongbing', 42, 2014, 'XB00000047', 'LS00000004', 153000)</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000004</v>
+        <f t="shared" si="4"/>
+        <v>LS00000004</v>
       </c>
       <c r="L35" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000034'</v>
       </c>
     </row>
@@ -6218,31 +6244,33 @@
         <v>44</v>
       </c>
       <c r="F36">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="G36" t="s">
         <v>228</v>
       </c>
-      <c r="H36" t="s">
-        <v>286</v>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="0"/>
-        <v>81000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>219000</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000035', N'Tiền không phải là vấn đề', N'Todd G. Buchholz', 44, 2018, 'XB00000003', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000035', N'Tiền không phải là vấn đề', N'Todd G. Buchholz', 44, 2014, 'XB00000003', 'LS00000001', 219000)</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L36" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000035'</v>
       </c>
     </row>
@@ -6260,31 +6288,33 @@
         <v>46</v>
       </c>
       <c r="F37">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G37" t="s">
         <v>252</v>
       </c>
-      <c r="H37" t="s">
-        <v>290</v>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000002</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="0"/>
-        <v>50000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>152000</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000036', N'Dạy con làm giàu (tập 1-5)', N'Steven E. Landsburg', 46, 2019, 'XB00000024', 'VT00000002')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000036', N'Dạy con làm giàu (tập 1-5)', N'Steven E. Landsburg', 46, 2009, 'XB00000024', 'LS00000002', 152000)</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000002</v>
+        <f t="shared" si="4"/>
+        <v>LS00000002</v>
       </c>
       <c r="L37" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000036'</v>
       </c>
     </row>
@@ -6302,31 +6332,33 @@
         <v>30</v>
       </c>
       <c r="F38">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
       </c>
       <c r="G38" t="s">
         <v>244</v>
       </c>
-      <c r="H38" t="s">
-        <v>306</v>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="0"/>
-        <v>157000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57000</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000037', N'Quản lý dự án trên 1 trang giấy', N'Vãn Tình', 30, 2019, 'XB00000046', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000037', N'Quản lý dự án trên 1 trang giấy', N'Vãn Tình', 30, 2010, 'XB00000046', 'LS00000006', 57000)</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L38" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000037'</v>
       </c>
     </row>
@@ -6344,31 +6376,33 @@
         <v>36</v>
       </c>
       <c r="F39">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1999</v>
       </c>
       <c r="G39" t="s">
         <v>257</v>
       </c>
-      <c r="H39" t="s">
-        <v>314</v>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000008</v>
       </c>
       <c r="I39">
-        <f t="shared" ca="1" si="0"/>
-        <v>191000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>334000</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000038', N'Hiểu nghề giữ nghiệp (ngành ngân hàng)', N'Tony Buổi sáng', 36, 2018, 'XB00000039', 'VT00000008')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000038', N'Hiểu nghề giữ nghiệp (ngành ngân hàng)', N'Tony Buổi sáng', 36, 1999, 'XB00000039', 'LS00000008', 334000)</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000008</v>
+        <f t="shared" si="4"/>
+        <v>LS00000008</v>
       </c>
       <c r="L39" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000038'</v>
       </c>
     </row>
@@ -6386,31 +6420,33 @@
         <v>22</v>
       </c>
       <c r="F40">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
       </c>
       <c r="G40" t="s">
         <v>258</v>
       </c>
-      <c r="H40" t="s">
-        <v>302</v>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="0"/>
-        <v>279000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>154000</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000039', N'The Ugly Duckling (song ngữ)', N'Dale Carnegie', 22, 2016, 'XB00000033', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000039', N'The Ugly Duckling (song ngữ)', N'Dale Carnegie', 22, 2010, 'XB00000033', 'LS00000005', 154000)</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L40" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000039'</v>
       </c>
     </row>
@@ -6428,31 +6464,33 @@
         <v>46</v>
       </c>
       <c r="F41">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2002</v>
       </c>
       <c r="G41" t="s">
         <v>259</v>
       </c>
-      <c r="H41" t="s">
-        <v>318</v>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000009</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="0"/>
-        <v>178000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>373000</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000041', N'Thời thơ ấu của các tổng thống Mỹ', N'Daniel Yergin &amp; Joseph Stanislaw', 46, 2021, 'XB00000035', 'VT00000009')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000041', N'Thời thơ ấu của các tổng thống Mỹ', N'Daniel Yergin &amp; Joseph Stanislaw', 46, 2002, 'XB00000035', 'LS00000009', 373000)</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000009</v>
+        <f t="shared" si="4"/>
+        <v>LS00000009</v>
       </c>
       <c r="L41" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000041'</v>
       </c>
     </row>
@@ -6470,31 +6508,33 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G42" t="s">
         <v>240</v>
       </c>
-      <c r="H42" t="s">
-        <v>286</v>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="0"/>
-        <v>225000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>187000</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000042', N'Sách kỹ năng', N'Steven E. Landsburg', 15, 2021, 'XB00000005', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000042', N'Sách kỹ năng', N'Steven E. Landsburg', 15, 2009, 'XB00000005', 'LS00000001', 187000)</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L42" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000042'</v>
       </c>
     </row>
@@ -6512,31 +6552,33 @@
         <v>31</v>
       </c>
       <c r="F43">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2003</v>
       </c>
       <c r="G43" t="s">
         <v>260</v>
       </c>
-      <c r="H43" t="s">
-        <v>306</v>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000006</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="0"/>
-        <v>121000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>170000</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000043', N'Đời thay đổi khi chúng ta thay đổi', N'Debra Fine', 31, 2016, 'XB00000019', 'VT00000006')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000043', N'Đời thay đổi khi chúng ta thay đổi', N'Debra Fine', 31, 2003, 'XB00000019', 'LS00000006', 170000)</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000006</v>
+        <f t="shared" si="4"/>
+        <v>LS00000006</v>
       </c>
       <c r="L43" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000043'</v>
       </c>
     </row>
@@ -6554,31 +6596,33 @@
         <v>47</v>
       </c>
       <c r="F44">
-        <v>2017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1996</v>
       </c>
       <c r="G44" t="s">
         <v>253</v>
       </c>
-      <c r="H44" t="s">
-        <v>322</v>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="0"/>
-        <v>438000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>152000</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000045', N'Đến lúc rồi, tự lập thôi', N'Debra Fine', 47, 2017, 'XB00000045', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000045', N'Đến lúc rồi, tự lập thôi', N'Debra Fine', 47, 1996, 'XB00000045', 'LS00000010', 152000)</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L44" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000045'</v>
       </c>
     </row>
@@ -6596,31 +6640,33 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2018</v>
       </c>
       <c r="G45" t="s">
         <v>261</v>
       </c>
-      <c r="H45" t="s">
-        <v>322</v>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="0"/>
-        <v>162000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>442000</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000046', N'Bí mật ngôn ngữ cơ thể', N'Vãn Tình', 39, 2020, 'XB00000048', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000046', N'Bí mật ngôn ngữ cơ thể', N'Vãn Tình', 39, 2018, 'XB00000048', 'LS00000010', 442000)</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L45" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000046'</v>
       </c>
     </row>
@@ -6638,31 +6684,33 @@
         <v>47</v>
       </c>
       <c r="F46">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2016</v>
       </c>
       <c r="G46" t="s">
         <v>231</v>
       </c>
-      <c r="H46" t="s">
-        <v>318</v>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000009</v>
       </c>
       <c r="I46">
-        <f t="shared" ca="1" si="0"/>
-        <v>43000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>170000</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000047', N'Trên đường băng', N'Eamonn Butler', 47, 2021, 'XB00000020', 'VT00000009')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000047', N'Trên đường băng', N'Eamonn Butler', 47, 2016, 'XB00000020', 'LS00000009', 170000)</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000009</v>
+        <f t="shared" si="4"/>
+        <v>LS00000009</v>
       </c>
       <c r="L46" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000047'</v>
       </c>
     </row>
@@ -6680,31 +6728,33 @@
         <v>39</v>
       </c>
       <c r="F47">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G47" t="s">
         <v>262</v>
       </c>
-      <c r="H47" t="s">
-        <v>322</v>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I47">
-        <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>426000</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000048', N'Cafe cùng Tony', N'Carol Kinsey Goman', 39, 2018, 'XB00000025', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000048', N'Cafe cùng Tony', N'Carol Kinsey Goman', 39, 2009, 'XB00000025', 'LS00000010', 426000)</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L47" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000048'</v>
       </c>
     </row>
@@ -6722,31 +6772,33 @@
         <v>26</v>
       </c>
       <c r="F48">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2011</v>
       </c>
       <c r="G48" t="s">
         <v>240</v>
       </c>
-      <c r="H48" t="s">
-        <v>294</v>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000003</v>
       </c>
       <c r="I48">
-        <f t="shared" ca="1" si="0"/>
-        <v>132000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>186000</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000049', N'Small Talk', N'Michael Lewis', 26, 2021, 'XB00000005', 'VT00000003')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000049', N'Small Talk', N'Michael Lewis', 26, 2011, 'XB00000005', 'LS00000003', 186000)</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000003</v>
+        <f t="shared" si="4"/>
+        <v>LS00000003</v>
       </c>
       <c r="L48" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000049'</v>
       </c>
     </row>
@@ -6764,31 +6816,33 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1997</v>
       </c>
       <c r="G49" t="s">
         <v>237</v>
       </c>
-      <c r="H49" t="s">
-        <v>310</v>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="0"/>
-        <v>150000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>337000</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000050', N'Ngày xưa có 1 con bò (once upon a cow)', N'Ha-Joon Chang', 19, 2019, 'XB00000010', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000050', N'Ngày xưa có 1 con bò (once upon a cow)', N'Ha-Joon Chang', 19, 1997, 'XB00000010', 'LS00000007', 337000)</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L49" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000050'</v>
       </c>
     </row>
@@ -6806,31 +6860,33 @@
         <v>50</v>
       </c>
       <c r="F50">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="G50" t="s">
         <v>263</v>
       </c>
-      <c r="H50" t="s">
-        <v>322</v>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="0"/>
-        <v>123000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>375000</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000051', N'Khéo ăn nói sẽ có được thiên hạ', N'Eamonn Butler', 50, 2020, 'XB00000042', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000051', N'Khéo ăn nói sẽ có được thiên hạ', N'Eamonn Butler', 50, 2014, 'XB00000042', 'LS00000010', 375000)</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L50" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000051'</v>
       </c>
     </row>
@@ -6848,31 +6904,33 @@
         <v>36</v>
       </c>
       <c r="F51">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1993</v>
       </c>
       <c r="G51" t="s">
         <v>264</v>
       </c>
-      <c r="H51" t="s">
-        <v>286</v>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="0"/>
-        <v>468000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>310000</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000052', N'Vô cùng tàn nhẫn, vô cùng yêu thương', N'Fukuzawa Yukichi', 36, 2015, 'XB00000013', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000052', N'Vô cùng tàn nhẫn, vô cùng yêu thương', N'Fukuzawa Yukichi', 36, 1993, 'XB00000013', 'LS00000001', 310000)</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L51" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000052'</v>
       </c>
     </row>
@@ -6890,31 +6948,33 @@
         <v>49</v>
       </c>
       <c r="F52">
-        <v>2016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2013</v>
       </c>
       <c r="G52" t="s">
         <v>258</v>
       </c>
-      <c r="H52" t="s">
-        <v>310</v>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="0"/>
-        <v>76000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>336000</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000053', N'Con cái chúng ta giỏi thật', N'Lê Thẩm Dương', 49, 2016, 'XB00000033', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000053', N'Con cái chúng ta giỏi thật', N'Lê Thẩm Dương', 49, 2013, 'XB00000033', 'LS00000007', 336000)</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L52" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000053'</v>
       </c>
     </row>
@@ -6932,31 +6992,33 @@
         <v>32</v>
       </c>
       <c r="F53">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2017</v>
       </c>
       <c r="G53" t="s">
         <v>265</v>
       </c>
-      <c r="H53" t="s">
-        <v>314</v>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000008</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="0"/>
-        <v>313000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>415000</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000054', N'Sức mạnh tiềm thức', N'Philip A. Fisher', 32, 2015, 'XB00000022', 'VT00000008')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000054', N'Sức mạnh tiềm thức', N'Philip A. Fisher', 32, 2017, 'XB00000022', 'LS00000008', 415000)</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000008</v>
+        <f t="shared" si="4"/>
+        <v>LS00000008</v>
       </c>
       <c r="L53" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000054'</v>
       </c>
     </row>
@@ -6974,31 +7036,33 @@
         <v>35</v>
       </c>
       <c r="F54">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2017</v>
       </c>
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="H54" t="s">
-        <v>322</v>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="0"/>
-        <v>177000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86000</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000055', N'Khí chất bao nhiêu, hạnh phúc bấy nhiêu', N'Đặng Phong', 35, 2018, 'XB00000050', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000055', N'Khí chất bao nhiêu, hạnh phúc bấy nhiêu', N'Đặng Phong', 35, 2017, 'XB00000050', 'LS00000010', 86000)</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L54" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000055'</v>
       </c>
     </row>
@@ -7016,31 +7080,33 @@
         <v>33</v>
       </c>
       <c r="F55">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="G55" t="s">
         <v>238</v>
       </c>
-      <c r="H55" t="s">
-        <v>322</v>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000010</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="0"/>
-        <v>448000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>500000</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000056', N'Cha mẹ Nhật dạy con tự lập', N'Chung Ju Yung', 33, 2021, 'XB00000030', 'VT00000010')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000056', N'Cha mẹ Nhật dạy con tự lập', N'Chung Ju Yung', 33, 2014, 'XB00000030', 'LS00000010', 500000)</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000010</v>
+        <f t="shared" si="4"/>
+        <v>LS00000010</v>
       </c>
       <c r="L55" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000056'</v>
       </c>
     </row>
@@ -7058,31 +7124,33 @@
         <v>32</v>
       </c>
       <c r="F56">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2017</v>
       </c>
       <c r="G56" t="s">
         <v>267</v>
       </c>
-      <c r="H56" t="s">
-        <v>302</v>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="0"/>
-        <v>184000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>495000</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000057', N'Lập bản đồ tư duy', N'Lê Thẩm Dương', 32, 2019, 'XB00000017', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000057', N'Lập bản đồ tư duy', N'Lê Thẩm Dương', 32, 2017, 'XB00000017', 'LS00000005', 495000)</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L56" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000057'</v>
       </c>
     </row>
@@ -7100,31 +7168,33 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1994</v>
       </c>
       <c r="G57" t="s">
         <v>268</v>
       </c>
-      <c r="H57" t="s">
-        <v>302</v>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I57">
-        <f t="shared" ca="1" si="0"/>
-        <v>320000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>498000</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000058', N'Nói thế nào để được chào đón, làm thế nào để được ghi nhận', N'Lê Văn Tề', 41, 2021, 'XB00000014', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000058', N'Nói thế nào để được chào đón, làm thế nào để được ghi nhận', N'Lê Văn Tề', 41, 1994, 'XB00000014', 'LS00000005', 498000)</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L57" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000058'</v>
       </c>
     </row>
@@ -7142,31 +7212,33 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2013</v>
       </c>
       <c r="G58" t="s">
         <v>229</v>
       </c>
-      <c r="H58" t="s">
-        <v>314</v>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000008</v>
       </c>
       <c r="I58">
-        <f t="shared" ca="1" si="0"/>
-        <v>151000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>344000</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000059', N'Cách khen, cách mắng, cách phạt con', N'Napoleon Hill', 6, 2020, 'XB00000009', 'VT00000008')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000059', N'Cách khen, cách mắng, cách phạt con', N'Napoleon Hill', 6, 2013, 'XB00000009', 'LS00000008', 344000)</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000008</v>
+        <f t="shared" si="4"/>
+        <v>LS00000008</v>
       </c>
       <c r="L58" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000059'</v>
       </c>
     </row>
@@ -7184,31 +7256,33 @@
         <v>34</v>
       </c>
       <c r="F59">
+        <f t="shared" ca="1" si="0"/>
         <v>2018</v>
       </c>
       <c r="G59" t="s">
         <v>235</v>
       </c>
-      <c r="H59" t="s">
-        <v>302</v>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000005</v>
       </c>
       <c r="I59">
-        <f t="shared" ca="1" si="0"/>
-        <v>227000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>354000</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000060', N'Bạn đắt giá bao nhiêu', N'Vãn Tình', 34, 2018, 'XB00000007', 'VT00000005')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000060', N'Bạn đắt giá bao nhiêu', N'Vãn Tình', 34, 2018, 'XB00000007', 'LS00000005', 354000)</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000005</v>
+        <f t="shared" si="4"/>
+        <v>LS00000005</v>
       </c>
       <c r="L59" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000060'</v>
       </c>
     </row>
@@ -7226,31 +7300,33 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>2020</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2000</v>
       </c>
       <c r="G60" t="s">
         <v>269</v>
       </c>
-      <c r="H60" t="s">
-        <v>286</v>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000001</v>
       </c>
       <c r="I60">
-        <f t="shared" ca="1" si="0"/>
-        <v>143000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>315000</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000061', N'Không bao giờ là thất bại, tất cả là thử thách', N'Vãn Tình', 11, 2020, 'XB00000016', 'VT00000001')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000061', N'Không bao giờ là thất bại, tất cả là thử thách', N'Vãn Tình', 11, 2000, 'XB00000016', 'LS00000001', 315000)</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000001</v>
+        <f t="shared" si="4"/>
+        <v>LS00000001</v>
       </c>
       <c r="L60" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000061'</v>
       </c>
     </row>
@@ -7268,31 +7344,33 @@
         <v>17</v>
       </c>
       <c r="F61">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2001</v>
       </c>
       <c r="G61" t="s">
         <v>270</v>
       </c>
-      <c r="H61" t="s">
-        <v>298</v>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000004</v>
       </c>
       <c r="I61">
-        <f t="shared" ca="1" si="0"/>
-        <v>169000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>145000</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000062', N'Đắc nhân tâm', N'Camilo Cruz', 17, 2018, 'XB00000041', 'VT00000004')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000062', N'Đắc nhân tâm', N'Camilo Cruz', 17, 2001, 'XB00000041', 'LS00000004', 145000)</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000004</v>
+        <f t="shared" si="4"/>
+        <v>LS00000004</v>
       </c>
       <c r="L61" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000062'</v>
       </c>
     </row>
@@ -7310,31 +7388,33 @@
         <v>19</v>
       </c>
       <c r="F62">
-        <v>2015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2000</v>
       </c>
       <c r="G62" t="s">
         <v>261</v>
       </c>
-      <c r="H62" t="s">
-        <v>314</v>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000008</v>
       </c>
       <c r="I62">
-        <f t="shared" ca="1" si="0"/>
-        <v>113000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>64000</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000063', N'Nghĩ giàu làm giàu', N'Tony Buổi sáng', 19, 2015, 'XB00000048', 'VT00000008')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000063', N'Nghĩ giàu làm giàu', N'Tony Buổi sáng', 19, 2000, 'XB00000048', 'LS00000008', 64000)</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000008</v>
+        <f t="shared" si="4"/>
+        <v>LS00000008</v>
       </c>
       <c r="L62" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000063'</v>
       </c>
     </row>
@@ -7352,31 +7432,33 @@
         <v>17</v>
       </c>
       <c r="F63">
-        <v>2018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1995</v>
       </c>
       <c r="G63" t="s">
         <v>271</v>
       </c>
-      <c r="H63" t="s">
-        <v>314</v>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000008</v>
       </c>
       <c r="I63">
-        <f t="shared" ca="1" si="0"/>
-        <v>171000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>183000</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000064', N'Thuật hồi xuân cho nam nữ', N'Michael Ellsberg', 17, 2018, 'XB00000011', 'VT00000008')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000064', N'Thuật hồi xuân cho nam nữ', N'Michael Ellsberg', 17, 1995, 'XB00000011', 'LS00000008', 183000)</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000008</v>
+        <f t="shared" si="4"/>
+        <v>LS00000008</v>
       </c>
       <c r="L63" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000064'</v>
       </c>
     </row>
@@ -7394,31 +7476,33 @@
         <v>31</v>
       </c>
       <c r="F64">
-        <v>2021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="G64" t="s">
         <v>236</v>
       </c>
-      <c r="H64" t="s">
-        <v>310</v>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000007</v>
       </c>
       <c r="I64">
-        <f t="shared" ca="1" si="0"/>
-        <v>126000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>479000</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sach values ('MS00000065', N'Tử huyệt cảm xúc', N'Roger E. A. Farmer', 31, 2021, 'XB00000038', 'VT00000007')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000065', N'Tử huyệt cảm xúc', N'Roger E. A. Farmer', 31, 2014, 'XB00000038', 'LS00000007', 479000)</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000007</v>
+        <f t="shared" si="4"/>
+        <v>LS00000007</v>
       </c>
       <c r="L64" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000065'</v>
       </c>
     </row>
@@ -7436,31 +7520,33 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
       </c>
       <c r="G65" t="s">
         <v>265</v>
       </c>
-      <c r="H65" t="s">
-        <v>290</v>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>LS00000002</v>
       </c>
       <c r="I65">
-        <f t="shared" ca="1" si="0"/>
-        <v>304000</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>116000</v>
       </c>
       <c r="J65" t="str">
-        <f>"insert into Sach values ('"&amp;B65&amp;"', N'"&amp;C65&amp;"', N'"&amp;D65&amp;"', "&amp;E65&amp;", "&amp;F65&amp;", '"&amp;G65&amp;"', "&amp;"'"&amp;H65&amp;"')"</f>
-        <v>insert into Sach values ('MS00000066', N'Cảm xúc - kẻ thù số 1 của thành công', N'Vãn Tình', 14, 2019, 'XB00000022', 'VT00000002')</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>insert into Sach values ('MS00000066', N'Cảm xúc - kẻ thù số 1 của thành công', N'Vãn Tình', 14, 2009, 'XB00000022', 'LS00000002', 116000)</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="2"/>
-        <v>VT00000002</v>
+        <f t="shared" si="4"/>
+        <v>LS00000002</v>
       </c>
       <c r="L65" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>update sach set soluong = soluong*2 where masach= 'MS00000066'</v>
       </c>
     </row>
@@ -7473,7 +7559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
@@ -7482,8 +7568,8 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -7511,8 +7597,8 @@
         <v>289</v>
       </c>
       <c r="F3" t="str">
-        <f>"insert into LoaiSach(MaVT) values('"&amp;B3&amp;"')"</f>
-        <v>insert into LoaiSach(MaVT) values('VT00000001')</v>
+        <f>"insert into VITRI values('"&amp;B3&amp;"',N'"&amp;D3&amp;"')"</f>
+        <v>insert into VITRI values('VT00000001',N'Kệ sách Khoa Kỹ Thuật Công Nghệ')</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -7529,8 +7615,8 @@
         <v>293</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F12" si="0">"insert into LoaiSach(MaVT) values('"&amp;B4&amp;"')"</f>
-        <v>insert into LoaiSach(MaVT) values('VT00000002')</v>
+        <f t="shared" ref="F4:F12" si="0">"insert into VITRI values('"&amp;B4&amp;"',N'"&amp;D4&amp;"')"</f>
+        <v>insert into VITRI values('VT00000002',N'Kệ sách Khoa Kinh Tế')</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -7548,7 +7634,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000003')</v>
+        <v>insert into VITRI values('VT00000003',N'Kệ sách Khoa Môi Trường')</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -7566,7 +7652,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000004')</v>
+        <v>insert into VITRI values('VT00000004',N'Kệ sách Khoa Y')</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -7584,7 +7670,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000005')</v>
+        <v>insert into VITRI values('VT00000005',N'Kệ sách Khoa Dược')</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -7602,7 +7688,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000006')</v>
+        <v>insert into VITRI values('VT00000006',N'Kệ sách Khoa Luật')</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -7620,7 +7706,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000007')</v>
+        <v>insert into VITRI values('VT00000007',N'Kệ sách Giải trí')</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -7638,7 +7724,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000008')</v>
+        <v>insert into VITRI values('VT00000008',N'Kệ sách hội hoạ')</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -7656,7 +7742,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000009')</v>
+        <v>insert into VITRI values('VT00000009',N'Kệ sách Khoa Nông nghiệp')</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -7674,7 +7760,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into LoaiSach(MaVT) values('VT00000010')</v>
+        <v>insert into VITRI values('VT00000010',N'Kệ sách Khoa Ngoại ngữ')</v>
       </c>
     </row>
   </sheetData>
@@ -7684,223 +7770,317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>287</v>
       </c>
       <c r="C3" t="s">
         <v>327</v>
       </c>
-      <c r="D3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f ca="1">"VT0000000"&amp;RANDBETWEEN(1,9)</f>
+        <v>VT00000004</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1">"Insert into loaisach values('"&amp;B3&amp;"', N'"&amp;C3&amp;"', '"&amp;D3&amp;"')"</f>
+        <v>Insert into loaisach values('LS00000001', N'Sách công nghệ thông tin', 'VT00000004')</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D20" ca="1" si="0">"VT0000000"&amp;RANDBETWEEN(1,9)</f>
+        <v>VT00000001</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E20" ca="1" si="1">"Insert into loaisach values('"&amp;B4&amp;"', N'"&amp;C4&amp;"', '"&amp;D4&amp;"')"</f>
+        <v>Insert into loaisach values('LS00000002', N'Sách kế toán', 'VT00000001')</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000002</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000003', N'sách Giải Trí', 'VT00000002')</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000005</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000004', N'sách Y Khoa', 'VT00000005')</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000005</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000005', N'sách Môi trường', 'VT00000005')</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000007</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000006', N'sách Dược', 'VT00000007')</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000001</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000007', N'sách Nhiếp ảnh', 'VT00000001')</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000001</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000008', N'sách Văn chương', 'VT00000001')</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000007</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000009', N'sách Luật', 'VT00000007')</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>323</v>
       </c>
       <c r="C12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000001</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000010', N'sách Ngôn ngữ nước ngoài', 'VT00000001')</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000002</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000011', N'sách Giáo trình', 'VT00000002')</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000008</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000012', N'sách Tạp chí', 'VT00000008')</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000009</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000013', N'sách Hướng dẫn', 'VT00000009')</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000005</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000014', N'sách Du lịch', 'VT00000005')</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>345</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C17" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000009</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000015', N'sách Sách kỹ năng', 'VT00000009')</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>347</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>348</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000003</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000016', N'sách Sách dành cho các em thiếu nhi', 'VT00000003')</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C19" t="s">
         <v>350</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000006</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000017', N'sách Thể loại sách chuyên ngành', 'VT00000006')</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>351</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" t="s">
-        <v>363</v>
-      </c>
-      <c r="D18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" t="s">
-        <v>369</v>
-      </c>
-      <c r="D20" t="s">
-        <v>370</v>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VT00000006</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Insert into loaisach values('LS00000018', N'sách Thể loại kinh tế, chính trị, xã hội', 'VT00000006')</v>
       </c>
     </row>
   </sheetData>
@@ -7912,7 +8092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="G51" workbookViewId="0">
+    <sheetView topLeftCell="G24" workbookViewId="0">
       <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
@@ -7933,25 +8113,25 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7960,25 +8140,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G3" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H3" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I3" t="str">
         <f xml:space="preserve"> "insert into DocGia values ('"&amp;B3&amp;"', N'"&amp;C3&amp;"', '"&amp;D3&amp;"', N'"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', N'"&amp;H3&amp;"' )"</f>
@@ -7988,25 +8168,25 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F4" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="H4" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I52" si="0" xml:space="preserve"> "insert into DocGia values ('"&amp;B4&amp;"', N'"&amp;C4&amp;"', '"&amp;D4&amp;"', N'"&amp;E4&amp;"', '"&amp;F4&amp;"', '"&amp;G4&amp;"', N'"&amp;H4&amp;"' )"</f>
@@ -8016,25 +8196,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="F5" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="G5" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="H5" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -8044,25 +8224,25 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="G6" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="H6" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -8072,25 +8252,25 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="G7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="H7" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -8100,25 +8280,25 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="F8" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="G8" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="H8" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -8128,25 +8308,25 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="E9" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F9" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="G9" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="H9" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -8156,25 +8336,25 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="E10" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="G10" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="H10" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -8184,25 +8364,25 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="F11" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G11" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="H11" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -8212,25 +8392,25 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="F12" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G12" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="H12" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -8240,25 +8420,25 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F13" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="G13" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="H13" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -8268,25 +8448,25 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="E14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G14" t="s">
         <v>546</v>
       </c>
-      <c r="F14" t="s">
-        <v>614</v>
-      </c>
-      <c r="G14" t="s">
-        <v>564</v>
-      </c>
       <c r="H14" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -8296,25 +8476,25 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="E15" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="F15" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="G15" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="H15" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -8324,25 +8504,25 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E16" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F16" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="G16" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="H16" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -8352,25 +8532,25 @@
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="G17" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="H17" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -8380,25 +8560,25 @@
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="G18" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="H18" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -8408,25 +8588,25 @@
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="F19" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="G19" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="H19" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -8436,25 +8616,25 @@
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D20" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F20" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="G20" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="H20" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -8464,25 +8644,25 @@
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E21" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="G21" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="H21" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -8492,25 +8672,25 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E22" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F22" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="G22" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="H22" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -8520,25 +8700,25 @@
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F23" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="G23" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="H23" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -8548,25 +8728,25 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E24" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F24" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="G24" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="H24" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -8576,25 +8756,25 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="F25" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="G25" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="H25" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -8604,25 +8784,25 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C26" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E26" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F26" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="G26" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="H26" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -8632,25 +8812,25 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E27" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F27" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="G27" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="H27" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -8660,25 +8840,25 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E28" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F28" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="G28" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="H28" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -8688,25 +8868,25 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C29" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E29" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F29" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="G29" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="H29" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -8716,25 +8896,25 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C30" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E30" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="F30" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="G30" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="H30" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -8744,25 +8924,25 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C31" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="E31" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F31" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="G31" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="H31" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -8772,25 +8952,25 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C32" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="E32" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="F32" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="G32" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="H32" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -8800,25 +8980,25 @@
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E33" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="F33" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="G33" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="H33" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -8828,25 +9008,25 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C34" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="E34" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="G34" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="H34" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -8856,25 +9036,25 @@
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C35" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="E35" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F35" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="G35" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="H35" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -8884,25 +9064,25 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C36" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="E36" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F36" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="G36" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="H36" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -8912,25 +9092,25 @@
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D37" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="E37" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="F37" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="G37" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="H37" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -8940,25 +9120,25 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C38" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D38" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="E38" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F38" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="G38" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="H38" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -8968,25 +9148,25 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E39" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F39" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="G39" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="H39" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -8996,25 +9176,25 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D40" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="E40" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F40" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="G40" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="H40" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -9024,25 +9204,25 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D41" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="E41" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F41" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="G41" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="H41" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -9052,25 +9232,25 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F42" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="G42" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="H42" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -9080,25 +9260,25 @@
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D43" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="E43" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F43" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="G43" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="H43" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -9108,25 +9288,25 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="E44" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="G44" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H44" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -9136,25 +9316,25 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="E45" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F45" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="G45" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="H45" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -9164,25 +9344,25 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D46" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="E46" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="F46" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="G46" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="H46" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -9192,25 +9372,25 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="E47" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F47" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="G47" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="H47" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
@@ -9220,25 +9400,25 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C48" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D48" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E48" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="F48" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="G48" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="H48" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
@@ -9248,25 +9428,25 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C49" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D49" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="E49" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F49" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="G49" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="H49" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
@@ -9276,25 +9456,25 @@
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C50" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D50" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="E50" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F50" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="G50" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="H50" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -9304,25 +9484,25 @@
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C51" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D51" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E51" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="F51" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="G51" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H51" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
@@ -9332,25 +9512,25 @@
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="C52" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D52" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F52" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="G52" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="H52" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
